--- a/data/datos_avistamientos.xlsx
+++ b/data/datos_avistamientos.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/59011/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/59011/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F464D330-87D3-7341-B421-4A7F37D4E662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A634A4FA-54B9-FA4E-B647-64C7D4386A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="15960" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="29920" windowHeight="18660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1 - Tabla 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Hoja 1 - Tabla 1'!$F$1:$F$241</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="558">
   <si>
     <t>Fecha</t>
   </si>
@@ -367,9 +370,6 @@
     <t>-73.627017</t>
   </si>
   <si>
-    <t xml:space="preserve">Lobo comun (Otaria flavescens) </t>
-  </si>
-  <si>
     <t>Lejos de la costa</t>
   </si>
   <si>
@@ -409,9 +409,6 @@
     <t>-73.613445</t>
   </si>
   <si>
-    <t xml:space="preserve">Chungungo (Contra felina) </t>
-  </si>
-  <si>
     <t>-39.95774</t>
   </si>
   <si>
@@ -691,9 +688,6 @@
     <t>-73.652294</t>
   </si>
   <si>
-    <t xml:space="preserve">Lobo comun (Otaria flavescens)  </t>
-  </si>
-  <si>
     <t>-39.95947</t>
   </si>
   <si>
@@ -913,9 +907,6 @@
     <t>-73.673027</t>
   </si>
   <si>
-    <t xml:space="preserve">Lobo comun (Otaria flavescens)   </t>
-  </si>
-  <si>
     <t>-39.962425</t>
   </si>
   <si>
@@ -1201,9 +1192,6 @@
     <t>-73.621756</t>
   </si>
   <si>
-    <t xml:space="preserve">Chungungo (Contra felina)  </t>
-  </si>
-  <si>
     <t>-39.957674</t>
   </si>
   <si>
@@ -1222,9 +1210,6 @@
     <t>-73.61752799999999</t>
   </si>
   <si>
-    <t xml:space="preserve">Chungungo (Lontra felina)  </t>
-  </si>
-  <si>
     <t>-39.958155</t>
   </si>
   <si>
@@ -1255,9 +1240,6 @@
     <t>-73.602063</t>
   </si>
   <si>
-    <t xml:space="preserve">Chungungo  (Contra felina) </t>
-  </si>
-  <si>
     <t>-39.956178</t>
   </si>
   <si>
@@ -1480,9 +1462,6 @@
     <t>-73.589724</t>
   </si>
   <si>
-    <t xml:space="preserve">Chungungo lontra felina </t>
-  </si>
-  <si>
     <t>-39.955389</t>
   </si>
   <si>
@@ -1519,9 +1498,6 @@
     <t>-73.662074</t>
   </si>
   <si>
-    <t xml:space="preserve">Lobo marino (Otaria flavescens) </t>
-  </si>
-  <si>
     <t>-39.963015</t>
   </si>
   <si>
@@ -1615,9 +1591,6 @@
     <t>-73.636343</t>
   </si>
   <si>
-    <t xml:space="preserve"> Lobo común (Otaria flavescens) </t>
-  </si>
-  <si>
     <t xml:space="preserve">Cerca de la loberia </t>
   </si>
   <si>
@@ -1627,16 +1600,10 @@
     <t>-73.66640700000001</t>
   </si>
   <si>
-    <t xml:space="preserve">Lobo común (Otaria flavescens) </t>
-  </si>
-  <si>
     <t>-39.96133</t>
   </si>
   <si>
     <t>-73.661265</t>
-  </si>
-  <si>
-    <t>Chungungo (Lontra felina)</t>
   </si>
   <si>
     <t>Cerca playa chaihuin</t>
@@ -1772,7 +1739,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1825,13 +1792,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1869,6 +1847,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3028,11 +3012,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K241"/>
+  <dimension ref="A1:L241"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E2" sqref="E2"/>
+      <selection pane="topRight" activeCell="F247" sqref="F247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3049,7 +3033,7 @@
     <col min="13" max="16384" width="16.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3063,7 +3047,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>4</v>
@@ -3083,8 +3067,9 @@
       <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L1" s="13"/>
+    </row>
+    <row r="2" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6">
         <v>44932</v>
       </c>
@@ -3119,7 +3104,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" ht="56" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6">
         <v>44932</v>
       </c>
@@ -3154,7 +3139,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>44932</v>
       </c>
@@ -3189,7 +3174,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>44932</v>
       </c>
@@ -3223,8 +3208,9 @@
       <c r="K5" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L5" s="14"/>
+    </row>
+    <row r="6" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>44932</v>
       </c>
@@ -3258,8 +3244,9 @@
       <c r="K6" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L6" s="14"/>
+    </row>
+    <row r="7" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>44932</v>
       </c>
@@ -3291,8 +3278,9 @@
       <c r="K7" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L7" s="14"/>
+    </row>
+    <row r="8" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>44932</v>
       </c>
@@ -3324,8 +3312,9 @@
       <c r="K8" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L8" s="14"/>
+    </row>
+    <row r="9" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>44932</v>
       </c>
@@ -3360,7 +3349,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="116" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" ht="116" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>44932</v>
       </c>
@@ -3395,7 +3384,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" ht="56" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>44932</v>
       </c>
@@ -3430,7 +3419,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>44932</v>
       </c>
@@ -3463,7 +3452,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>44932</v>
       </c>
@@ -3498,7 +3487,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>44937</v>
       </c>
@@ -3531,7 +3520,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>44937</v>
       </c>
@@ -3566,7 +3555,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>44937</v>
       </c>
@@ -4374,7 +4363,7 @@
         <v>41</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>115</v>
+        <v>26</v>
       </c>
       <c r="G39" s="8">
         <v>1</v>
@@ -4383,13 +4372,13 @@
         <v>16</v>
       </c>
       <c r="I39" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="J39" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="J39" s="4" t="s">
+      <c r="K39" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="K39" s="4" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -4421,10 +4410,10 @@
         <v>80</v>
       </c>
       <c r="J40" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="K40" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="K40" s="4" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -4453,13 +4442,13 @@
         <v>16</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J41" s="4" t="s">
         <v>49</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -4485,16 +4474,16 @@
         <v>1</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I42" s="4" t="s">
         <v>112</v>
       </c>
       <c r="J42" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K42" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="K42" s="4" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -4523,13 +4512,13 @@
         <v>16</v>
       </c>
       <c r="I43" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J43" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="J43" s="4" t="s">
+      <c r="K43" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="K43" s="4" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -4549,22 +4538,22 @@
         <v>46</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G44" s="8">
         <v>1</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>112</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -4590,16 +4579,16 @@
         <v>2</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>112</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -4625,16 +4614,16 @@
         <v>3</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>80</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -4660,16 +4649,16 @@
         <v>1</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I47" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="K47" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="J47" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="K47" s="4" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -4695,14 +4684,14 @@
         <v>2</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I48" s="5"/>
       <c r="J48" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -4722,7 +4711,7 @@
         <v>51</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G49" s="8">
         <v>1</v>
@@ -4731,13 +4720,13 @@
         <v>65</v>
       </c>
       <c r="I49" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="K49" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="J49" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="K49" s="4" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -4763,14 +4752,14 @@
         <v>1</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I50" s="5"/>
       <c r="J50" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -4796,14 +4785,14 @@
         <v>1</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I51" s="5"/>
       <c r="J51" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -4832,13 +4821,13 @@
         <v>65</v>
       </c>
       <c r="I52" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="K52" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="J52" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="K52" s="4" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -4864,16 +4853,16 @@
         <v>1</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I53" s="4" t="s">
         <v>112</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -4899,16 +4888,16 @@
         <v>2</v>
       </c>
       <c r="H54" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="J54" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I54" s="4" t="s">
+      <c r="K54" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="J54" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="K54" s="4" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -4934,16 +4923,16 @@
         <v>1</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I55" s="4" t="s">
         <v>112</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -4969,16 +4958,16 @@
         <v>1</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -5004,16 +4993,16 @@
         <v>1</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I57" s="4" t="s">
         <v>112</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -5039,16 +5028,16 @@
         <v>1</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -5068,20 +5057,20 @@
         <v>61</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>115</v>
+        <v>26</v>
       </c>
       <c r="G59" s="8">
         <v>2</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I59" s="5"/>
       <c r="J59" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -5107,14 +5096,14 @@
         <v>2</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I60" s="5"/>
       <c r="J60" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -5134,20 +5123,20 @@
         <v>63</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>115</v>
+        <v>26</v>
       </c>
       <c r="G61" s="8">
         <v>1</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I61" s="5"/>
       <c r="J61" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -5173,14 +5162,14 @@
         <v>1</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I62" s="5"/>
       <c r="J62" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -5200,20 +5189,20 @@
         <v>65</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>115</v>
+        <v>26</v>
       </c>
       <c r="G63" s="8">
         <v>3</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I63" s="5"/>
       <c r="J63" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -5233,7 +5222,7 @@
         <v>66</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>115</v>
+        <v>26</v>
       </c>
       <c r="G64" s="8">
         <v>1</v>
@@ -5243,10 +5232,10 @@
       </c>
       <c r="I64" s="5"/>
       <c r="J64" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K64" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -5276,10 +5265,10 @@
       </c>
       <c r="I65" s="5"/>
       <c r="J65" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -5299,7 +5288,7 @@
         <v>68</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>115</v>
+        <v>26</v>
       </c>
       <c r="G66" s="8">
         <v>2</v>
@@ -5309,10 +5298,10 @@
       </c>
       <c r="I66" s="5"/>
       <c r="J66" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -5332,7 +5321,7 @@
         <v>69</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G67" s="8">
         <v>1</v>
@@ -5341,13 +5330,13 @@
         <v>47</v>
       </c>
       <c r="I67" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="K67" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="J67" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="K67" s="4" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -5377,10 +5366,10 @@
       </c>
       <c r="I68" s="5"/>
       <c r="J68" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K68" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -5410,10 +5399,10 @@
       </c>
       <c r="I69" s="5"/>
       <c r="J69" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K69" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -5443,10 +5432,10 @@
       </c>
       <c r="I70" s="5"/>
       <c r="J70" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K70" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -5472,16 +5461,16 @@
         <v>1</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I71" s="4" t="s">
         <v>112</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K71" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -5511,10 +5500,10 @@
       </c>
       <c r="I72" s="5"/>
       <c r="J72" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K72" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -5544,10 +5533,10 @@
       </c>
       <c r="I73" s="5"/>
       <c r="J73" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K73" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -5567,7 +5556,7 @@
         <v>76</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>115</v>
+        <v>26</v>
       </c>
       <c r="G74" s="8">
         <v>2</v>
@@ -5577,10 +5566,10 @@
       </c>
       <c r="I74" s="5"/>
       <c r="J74" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K74" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -5610,10 +5599,10 @@
       </c>
       <c r="I75" s="5"/>
       <c r="J75" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K75" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -5643,10 +5632,10 @@
       </c>
       <c r="I76" s="5"/>
       <c r="J76" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K76" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -5666,7 +5655,7 @@
         <v>80</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G77" s="8">
         <v>1</v>
@@ -5676,10 +5665,10 @@
       </c>
       <c r="I77" s="5"/>
       <c r="J77" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K77" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -5699,7 +5688,7 @@
         <v>81</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>115</v>
+        <v>26</v>
       </c>
       <c r="G78" s="8">
         <v>1</v>
@@ -5709,10 +5698,10 @@
       </c>
       <c r="I78" s="5"/>
       <c r="J78" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K78" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -5742,10 +5731,10 @@
       </c>
       <c r="I79" s="5"/>
       <c r="J79" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K79" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -5775,10 +5764,10 @@
       </c>
       <c r="I80" s="5"/>
       <c r="J80" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K80" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -5808,10 +5797,10 @@
       </c>
       <c r="I81" s="5"/>
       <c r="J81" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K81" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -5841,10 +5830,10 @@
       </c>
       <c r="I82" s="5"/>
       <c r="J82" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K82" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -5864,7 +5853,7 @@
         <v>86</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G83" s="8">
         <v>1</v>
@@ -5874,10 +5863,10 @@
       </c>
       <c r="I83" s="5"/>
       <c r="J83" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K83" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -5897,7 +5886,7 @@
         <v>97</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>115</v>
+        <v>26</v>
       </c>
       <c r="G84" s="8">
         <v>5</v>
@@ -5906,13 +5895,13 @@
         <v>16</v>
       </c>
       <c r="I84" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="J84" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="K84" s="4" t="s">
         <v>220</v>
-      </c>
-      <c r="J84" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="K84" s="4" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -5932,7 +5921,7 @@
         <v>98</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>223</v>
+        <v>26</v>
       </c>
       <c r="G85" s="8">
         <v>1</v>
@@ -5941,13 +5930,13 @@
         <v>16</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="K85" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -5976,13 +5965,13 @@
         <v>16</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K86" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -6012,10 +6001,10 @@
       </c>
       <c r="I87" s="5"/>
       <c r="J87" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="K87" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -6035,7 +6024,7 @@
         <v>101</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>223</v>
+        <v>26</v>
       </c>
       <c r="G88" s="8">
         <v>1</v>
@@ -6044,13 +6033,13 @@
         <v>16</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K88" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -6070,7 +6059,7 @@
         <v>102</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>223</v>
+        <v>26</v>
       </c>
       <c r="G89" s="8">
         <v>1</v>
@@ -6079,13 +6068,13 @@
         <v>16</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K89" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -6105,7 +6094,7 @@
         <v>103</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>223</v>
+        <v>26</v>
       </c>
       <c r="G90" s="8">
         <v>6</v>
@@ -6114,13 +6103,13 @@
         <v>16</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="K90" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -6140,7 +6129,7 @@
         <v>104</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>223</v>
+        <v>26</v>
       </c>
       <c r="G91" s="8">
         <v>1</v>
@@ -6149,13 +6138,13 @@
         <v>16</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K91" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -6175,7 +6164,7 @@
         <v>105</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>223</v>
+        <v>26</v>
       </c>
       <c r="G92" s="8">
         <v>11</v>
@@ -6184,13 +6173,13 @@
         <v>11</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="K92" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -6210,7 +6199,7 @@
         <v>106</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G93" s="8">
         <v>1</v>
@@ -6219,13 +6208,13 @@
         <v>11</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="K93" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -6245,7 +6234,7 @@
         <v>107</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>223</v>
+        <v>26</v>
       </c>
       <c r="G94" s="8">
         <v>2</v>
@@ -6257,10 +6246,10 @@
         <v>83</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="K94" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -6280,7 +6269,7 @@
         <v>108</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>223</v>
+        <v>26</v>
       </c>
       <c r="G95" s="8">
         <v>4</v>
@@ -6289,13 +6278,13 @@
         <v>65</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J95" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="K95" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -6315,7 +6304,7 @@
         <v>109</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>223</v>
+        <v>26</v>
       </c>
       <c r="G96" s="8">
         <v>2</v>
@@ -6324,13 +6313,13 @@
         <v>16</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="K96" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -6350,7 +6339,7 @@
         <v>110</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>223</v>
+        <v>26</v>
       </c>
       <c r="G97" s="8">
         <v>2</v>
@@ -6359,13 +6348,13 @@
         <v>16</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="K97" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -6385,7 +6374,7 @@
         <v>111</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>223</v>
+        <v>26</v>
       </c>
       <c r="G98" s="8">
         <v>2</v>
@@ -6394,13 +6383,13 @@
         <v>16</v>
       </c>
       <c r="I98" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="K98" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -6429,13 +6418,13 @@
         <v>16</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J99" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="K99" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -6455,7 +6444,7 @@
         <v>113</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>223</v>
+        <v>26</v>
       </c>
       <c r="G100" s="8">
         <v>1</v>
@@ -6464,13 +6453,13 @@
         <v>16</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K100" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -6499,13 +6488,13 @@
         <v>68</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="J101" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="K101" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -6525,7 +6514,7 @@
         <v>115</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>223</v>
+        <v>26</v>
       </c>
       <c r="G102" s="8">
         <v>2</v>
@@ -6534,13 +6523,13 @@
         <v>16</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J102" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="K102" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -6569,13 +6558,13 @@
         <v>11</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="J103" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="K103" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -6605,10 +6594,10 @@
       </c>
       <c r="I104" s="5"/>
       <c r="J104" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="K104" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -6628,7 +6617,7 @@
         <v>118</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>223</v>
+        <v>26</v>
       </c>
       <c r="G105" s="8">
         <v>3</v>
@@ -6637,13 +6626,13 @@
         <v>16</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J105" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K105" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -6672,13 +6661,13 @@
         <v>68</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="J106" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="K106" s="4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="107" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -6698,7 +6687,7 @@
         <v>120</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>223</v>
+        <v>26</v>
       </c>
       <c r="G107" s="8">
         <v>1</v>
@@ -6707,13 +6696,13 @@
         <v>16</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J107" s="4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="K107" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -6743,10 +6732,10 @@
       </c>
       <c r="I108" s="5"/>
       <c r="J108" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="K108" s="4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -6775,13 +6764,13 @@
         <v>68</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="J109" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="K109" s="4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -6801,7 +6790,7 @@
         <v>124</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>223</v>
+        <v>26</v>
       </c>
       <c r="G110" s="8">
         <v>1</v>
@@ -6810,13 +6799,13 @@
         <v>16</v>
       </c>
       <c r="I110" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J110" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K110" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="111" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -6836,22 +6825,22 @@
         <v>125</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>223</v>
+        <v>26</v>
       </c>
       <c r="G111" s="8">
         <v>2</v>
       </c>
       <c r="H111" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="I111" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="J111" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="K111" s="4" t="s">
         <v>281</v>
-      </c>
-      <c r="I111" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="J111" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="K111" s="4" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="112" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -6871,22 +6860,22 @@
         <v>126</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>115</v>
+        <v>26</v>
       </c>
       <c r="G112" s="8">
         <v>1</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I112" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="J112" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="J112" s="4" t="s">
-        <v>285</v>
-      </c>
       <c r="K112" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="113" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -6906,22 +6895,22 @@
         <v>127</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>223</v>
+        <v>26</v>
       </c>
       <c r="G113" s="8">
         <v>1</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I113" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J113" s="4" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="K113" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="114" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -6941,22 +6930,22 @@
         <v>128</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>223</v>
+        <v>26</v>
       </c>
       <c r="G114" s="8">
         <v>1</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I114" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J114" s="4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="K114" s="4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -6976,22 +6965,22 @@
         <v>129</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>223</v>
+        <v>26</v>
       </c>
       <c r="G115" s="8">
         <v>1</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I115" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J115" s="4" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="K115" s="4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="116" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -7011,22 +7000,22 @@
         <v>130</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>223</v>
+        <v>26</v>
       </c>
       <c r="G116" s="8">
         <v>1</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I116" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J116" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K116" s="4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -7052,16 +7041,16 @@
         <v>1</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I117" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J117" s="4" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="K117" s="4" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="118" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -7081,22 +7070,22 @@
         <v>132</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>297</v>
+        <v>26</v>
       </c>
       <c r="G118" s="8">
         <v>1</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I118" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J118" s="4" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="K118" s="4" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -7116,7 +7105,7 @@
         <v>133</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G119" s="8">
         <v>1</v>
@@ -7125,13 +7114,13 @@
         <v>47</v>
       </c>
       <c r="I119" s="4" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="J119" s="4" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="K119" s="4" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -7157,16 +7146,16 @@
         <v>2</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I120" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J120" s="4" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="K120" s="4" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="121" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -7186,22 +7175,22 @@
         <v>135</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>223</v>
+        <v>26</v>
       </c>
       <c r="G121" s="8">
         <v>1</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I121" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J121" s="4" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K121" s="4" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="122" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -7227,16 +7216,16 @@
         <v>3</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I122" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J122" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K122" s="4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -7262,16 +7251,16 @@
         <v>1</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I123" s="4" t="s">
         <v>112</v>
       </c>
       <c r="J123" s="4" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K123" s="4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="124" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -7291,22 +7280,22 @@
         <v>138</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>223</v>
+        <v>26</v>
       </c>
       <c r="G124" s="8">
         <v>4</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I124" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J124" s="4" t="s">
         <v>66</v>
       </c>
       <c r="K124" s="4" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -7332,14 +7321,14 @@
         <v>1</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I125" s="5"/>
       <c r="J125" s="4" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="K125" s="4" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="126" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -7359,22 +7348,22 @@
         <v>140</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>223</v>
+        <v>26</v>
       </c>
       <c r="G126" s="8">
         <v>3</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I126" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J126" s="4" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="K126" s="4" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="127" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -7400,14 +7389,14 @@
         <v>1</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I127" s="5"/>
       <c r="J127" s="4" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="K127" s="4" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="128" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -7433,14 +7422,14 @@
         <v>1</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I128" s="5"/>
       <c r="J128" s="4" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="K128" s="4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="129" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -7466,14 +7455,14 @@
         <v>3</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I129" s="5"/>
       <c r="J129" s="4" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="K129" s="4" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="130" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -7499,14 +7488,14 @@
         <v>2</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I130" s="5"/>
       <c r="J130" s="4" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="K130" s="4" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="131" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -7532,16 +7521,16 @@
         <v>3</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I131" s="4" t="s">
         <v>112</v>
       </c>
       <c r="J131" s="4" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="K131" s="4" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="132" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -7567,16 +7556,16 @@
         <v>1</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I132" s="4" t="s">
         <v>112</v>
       </c>
       <c r="J132" s="4" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="K132" s="4" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="133" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -7602,16 +7591,16 @@
         <v>3</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I133" s="4" t="s">
         <v>112</v>
       </c>
       <c r="J133" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="K133" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="134" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -7640,13 +7629,13 @@
         <v>16</v>
       </c>
       <c r="I134" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J134" s="4" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K134" s="4" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="135" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -7675,13 +7664,13 @@
         <v>16</v>
       </c>
       <c r="I135" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J135" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K135" s="4" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="136" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -7710,13 +7699,13 @@
         <v>16</v>
       </c>
       <c r="I136" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J136" s="4" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K136" s="4" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="137" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -7746,10 +7735,10 @@
       </c>
       <c r="I137" s="5"/>
       <c r="J137" s="4" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="K137" s="4" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="138" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -7778,13 +7767,13 @@
         <v>16</v>
       </c>
       <c r="I138" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J138" s="4" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="K138" s="4" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="139" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -7804,7 +7793,7 @@
         <v>153</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>223</v>
+        <v>26</v>
       </c>
       <c r="G139" s="8">
         <v>1</v>
@@ -7813,13 +7802,13 @@
         <v>16</v>
       </c>
       <c r="I139" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J139" s="4" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="K139" s="4" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="140" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -7839,7 +7828,7 @@
         <v>154</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G140" s="8">
         <v>1</v>
@@ -7848,13 +7837,13 @@
         <v>47</v>
       </c>
       <c r="I140" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J140" s="4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="K140" s="4" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="141" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -7884,10 +7873,10 @@
       </c>
       <c r="I141" s="5"/>
       <c r="J141" s="4" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="K141" s="4" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="142" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -7916,13 +7905,13 @@
         <v>16</v>
       </c>
       <c r="I142" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J142" s="4" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="K142" s="4" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="143" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -7948,16 +7937,16 @@
         <v>1</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I143" s="4" t="s">
         <v>112</v>
       </c>
       <c r="J143" s="4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="K143" s="4" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="144" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -7987,10 +7976,10 @@
       </c>
       <c r="I144" s="5"/>
       <c r="J144" s="4" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="K144" s="4" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="145" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -8020,10 +8009,10 @@
       </c>
       <c r="I145" s="5"/>
       <c r="J145" s="4" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="K145" s="4" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="146" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -8053,10 +8042,10 @@
       </c>
       <c r="I146" s="5"/>
       <c r="J146" s="4" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="K146" s="4" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="147" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -8085,13 +8074,13 @@
         <v>16</v>
       </c>
       <c r="I147" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J147" s="4" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="K147" s="4" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="148" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -8111,7 +8100,7 @@
         <v>162</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G148" s="8">
         <v>2</v>
@@ -8120,13 +8109,13 @@
         <v>47</v>
       </c>
       <c r="I148" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="J148" s="4" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K148" s="4" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="149" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -8146,7 +8135,7 @@
         <v>163</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G149" s="8">
         <v>1</v>
@@ -8156,10 +8145,10 @@
       </c>
       <c r="I149" s="5"/>
       <c r="J149" s="4" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="K149" s="4" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="150" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -8179,7 +8168,7 @@
         <v>164</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G150" s="8">
         <v>2</v>
@@ -8188,13 +8177,13 @@
         <v>47</v>
       </c>
       <c r="I150" s="4" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="J150" s="4" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="K150" s="4" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="151" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -8214,7 +8203,7 @@
         <v>165</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G151" s="8">
         <v>2</v>
@@ -8223,13 +8212,13 @@
         <v>47</v>
       </c>
       <c r="I151" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="J151" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="K151" s="4" t="s">
         <v>364</v>
-      </c>
-      <c r="J151" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="K151" s="4" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="152" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -8249,7 +8238,7 @@
         <v>166</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G152" s="8">
         <v>1</v>
@@ -8258,13 +8247,13 @@
         <v>47</v>
       </c>
       <c r="I152" s="4" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="J152" s="4" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="K152" s="4" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="153" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -8284,7 +8273,7 @@
         <v>167</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G153" s="8">
         <v>1</v>
@@ -8293,13 +8282,13 @@
         <v>16</v>
       </c>
       <c r="I153" s="4" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="J153" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="K153" s="4" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="154" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -8328,13 +8317,13 @@
         <v>16</v>
       </c>
       <c r="I154" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J154" s="4" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="K154" s="4" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="155" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -8360,16 +8349,16 @@
         <v>1</v>
       </c>
       <c r="H155" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I155" s="4" t="s">
         <v>112</v>
       </c>
       <c r="J155" s="4" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="K155" s="4" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="156" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -8399,10 +8388,10 @@
       </c>
       <c r="I156" s="5"/>
       <c r="J156" s="4" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="K156" s="4" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="157" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -8428,16 +8417,16 @@
         <v>2</v>
       </c>
       <c r="H157" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I157" s="4" t="s">
         <v>112</v>
       </c>
       <c r="J157" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K157" s="4" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="158" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -8463,16 +8452,16 @@
         <v>1</v>
       </c>
       <c r="H158" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I158" s="4" t="s">
         <v>112</v>
       </c>
       <c r="J158" s="4" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="K158" s="4" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="159" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -8498,16 +8487,16 @@
         <v>1</v>
       </c>
       <c r="H159" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I159" s="4" t="s">
         <v>112</v>
       </c>
       <c r="J159" s="4" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="K159" s="4" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="160" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -8533,14 +8522,14 @@
         <v>1</v>
       </c>
       <c r="H160" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I160" s="5"/>
       <c r="J160" s="4" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K160" s="4" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="161" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -8560,22 +8549,22 @@
         <v>175</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>223</v>
+        <v>26</v>
       </c>
       <c r="G161" s="8">
         <v>1</v>
       </c>
       <c r="H161" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I161" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J161" s="4" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="K161" s="4" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="162" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -8595,22 +8584,22 @@
         <v>176</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>223</v>
+        <v>26</v>
       </c>
       <c r="G162" s="8">
         <v>1</v>
       </c>
       <c r="H162" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I162" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="J162" s="4" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="K162" s="4" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="163" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -8630,7 +8619,7 @@
         <v>177</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>393</v>
+        <v>10</v>
       </c>
       <c r="G163" s="8">
         <v>2</v>
@@ -8642,10 +8631,10 @@
         <v>112</v>
       </c>
       <c r="J163" s="4" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="K163" s="4" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="164" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -8671,14 +8660,14 @@
         <v>1</v>
       </c>
       <c r="H164" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I164" s="5"/>
       <c r="J164" s="4" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="K164" s="4" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="165" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -8704,14 +8693,14 @@
         <v>1</v>
       </c>
       <c r="H165" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I165" s="5"/>
       <c r="J165" s="4" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="K165" s="4" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="166" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -8731,22 +8720,22 @@
         <v>180</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>400</v>
+        <v>10</v>
       </c>
       <c r="G166" s="8">
         <v>1</v>
       </c>
       <c r="H166" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I166" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="J166" s="4" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="K166" s="4" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="167" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -8766,22 +8755,22 @@
         <v>181</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>223</v>
+        <v>26</v>
       </c>
       <c r="G167" s="8">
         <v>1</v>
       </c>
       <c r="H167" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I167" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="J167" s="4" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="K167" s="4" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="168" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -8807,14 +8796,14 @@
         <v>1</v>
       </c>
       <c r="H168" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I168" s="5"/>
       <c r="J168" s="4" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="K168" s="4" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="169" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -8834,20 +8823,20 @@
         <v>183</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>400</v>
+        <v>10</v>
       </c>
       <c r="G169" s="8">
         <v>1</v>
       </c>
       <c r="H169" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I169" s="5"/>
       <c r="J169" s="4" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="K169" s="4" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="170" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -8867,7 +8856,7 @@
         <v>184</v>
       </c>
       <c r="F170" s="4" t="s">
-        <v>400</v>
+        <v>10</v>
       </c>
       <c r="G170" s="8">
         <v>1</v>
@@ -8877,10 +8866,10 @@
       </c>
       <c r="I170" s="5"/>
       <c r="J170" s="4" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="K170" s="4" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="171" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -8900,20 +8889,20 @@
         <v>185</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>411</v>
+        <v>10</v>
       </c>
       <c r="G171" s="8">
         <v>1</v>
       </c>
       <c r="H171" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I171" s="5"/>
       <c r="J171" s="4" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="K171" s="4" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
     </row>
     <row r="172" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -8933,22 +8922,22 @@
         <v>186</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>411</v>
+        <v>10</v>
       </c>
       <c r="G172" s="8">
         <v>1</v>
       </c>
       <c r="H172" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I172" s="4" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="J172" s="4" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="K172" s="4" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
     </row>
     <row r="173" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -8968,20 +8957,20 @@
         <v>187</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>400</v>
+        <v>10</v>
       </c>
       <c r="G173" s="8">
         <v>1</v>
       </c>
       <c r="H173" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I173" s="5"/>
       <c r="J173" s="4" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="K173" s="4" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
     </row>
     <row r="174" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -9011,10 +9000,10 @@
       </c>
       <c r="I174" s="5"/>
       <c r="J174" s="4" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="K174" s="4" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="175" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -9034,20 +9023,20 @@
         <v>189</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>223</v>
+        <v>26</v>
       </c>
       <c r="G175" s="8">
         <v>1</v>
       </c>
       <c r="H175" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I175" s="5"/>
       <c r="J175" s="4" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="K175" s="4" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
     </row>
     <row r="176" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -9067,7 +9056,7 @@
         <v>190</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G176" s="8">
         <v>2</v>
@@ -9076,13 +9065,13 @@
         <v>11</v>
       </c>
       <c r="I176" s="4" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="J176" s="4" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="K176" s="4" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
     </row>
     <row r="177" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -9102,20 +9091,20 @@
         <v>191</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>223</v>
+        <v>26</v>
       </c>
       <c r="G177" s="8">
         <v>1</v>
       </c>
       <c r="H177" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I177" s="5"/>
       <c r="J177" s="4" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="K177" s="4" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="178" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -9135,20 +9124,20 @@
         <v>192</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>115</v>
+        <v>26</v>
       </c>
       <c r="G178" s="8">
         <v>1</v>
       </c>
       <c r="H178" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I178" s="5"/>
       <c r="J178" s="4" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="K178" s="4" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
     </row>
     <row r="179" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -9178,10 +9167,10 @@
       </c>
       <c r="I179" s="5"/>
       <c r="J179" s="4" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="K179" s="4" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
     </row>
     <row r="180" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -9207,14 +9196,14 @@
         <v>1</v>
       </c>
       <c r="H180" s="4" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="I180" s="5"/>
       <c r="J180" s="4" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="K180" s="4" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
     </row>
     <row r="181" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -9240,14 +9229,14 @@
         <v>1</v>
       </c>
       <c r="H181" s="4" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="I181" s="5"/>
       <c r="J181" s="4" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="K181" s="4" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
     </row>
     <row r="182" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -9277,10 +9266,10 @@
       </c>
       <c r="I182" s="5"/>
       <c r="J182" s="4" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="K182" s="4" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
     </row>
     <row r="183" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -9306,14 +9295,14 @@
         <v>1</v>
       </c>
       <c r="H183" s="4" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="I183" s="5"/>
       <c r="J183" s="4" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="K183" s="4" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="184" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -9339,14 +9328,14 @@
         <v>1</v>
       </c>
       <c r="H184" s="4" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="I184" s="5"/>
       <c r="J184" s="4" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="K184" s="4" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
     </row>
     <row r="185" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -9376,10 +9365,10 @@
       </c>
       <c r="I185" s="5"/>
       <c r="J185" s="4" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="K185" s="4" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
     </row>
     <row r="186" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -9409,10 +9398,10 @@
       </c>
       <c r="I186" s="5"/>
       <c r="J186" s="4" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="K186" s="4" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
     </row>
     <row r="187" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -9444,10 +9433,10 @@
         <v>112</v>
       </c>
       <c r="J187" s="4" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="K187" s="4" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
     </row>
     <row r="188" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -9479,10 +9468,10 @@
         <v>112</v>
       </c>
       <c r="J188" s="4" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="K188" s="4" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="189" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -9502,20 +9491,20 @@
         <v>203</v>
       </c>
       <c r="F189" s="4" t="s">
-        <v>400</v>
+        <v>10</v>
       </c>
       <c r="G189" s="8">
         <v>1</v>
       </c>
       <c r="H189" s="4" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="I189" s="5"/>
       <c r="J189" s="4" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="K189" s="4" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
     </row>
     <row r="190" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -9544,13 +9533,13 @@
         <v>11</v>
       </c>
       <c r="I190" s="4" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="J190" s="4" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="K190" s="4" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
     </row>
     <row r="191" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -9570,22 +9559,22 @@
         <v>205</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="G191" s="8">
         <v>35</v>
       </c>
       <c r="H191" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I191" s="4" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="J191" s="4" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="K191" s="4" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
     </row>
     <row r="192" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -9605,22 +9594,22 @@
         <v>206</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="G192" s="8">
         <v>1</v>
       </c>
       <c r="H192" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I192" s="4" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="J192" s="4" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="K192" s="4" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
     </row>
     <row r="193" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -9640,22 +9629,22 @@
         <v>207</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="G193" s="8">
         <v>1</v>
       </c>
       <c r="H193" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I193" s="4" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="J193" s="4" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="K193" s="4" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
     <row r="194" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -9675,22 +9664,22 @@
         <v>208</v>
       </c>
       <c r="F194" s="4" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="G194" s="8">
         <v>1</v>
       </c>
       <c r="H194" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I194" s="4" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="J194" s="4" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="K194" s="4" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
     <row r="195" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -9710,22 +9699,22 @@
         <v>209</v>
       </c>
       <c r="F195" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="G195" s="8">
+        <v>1</v>
+      </c>
+      <c r="H195" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I195" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="J195" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="K195" s="4" t="s">
         <v>466</v>
-      </c>
-      <c r="G195" s="8">
-        <v>1</v>
-      </c>
-      <c r="H195" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="I195" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="J195" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="K195" s="4" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="196" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -9745,20 +9734,20 @@
         <v>210</v>
       </c>
       <c r="F196" s="4" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="G196" s="8">
         <v>10</v>
       </c>
       <c r="H196" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I196" s="5"/>
       <c r="J196" s="4" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="K196" s="4" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="197" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -9778,20 +9767,20 @@
         <v>211</v>
       </c>
       <c r="F197" s="4" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="G197" s="8">
         <v>16</v>
       </c>
       <c r="H197" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I197" s="5"/>
       <c r="J197" s="4" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="K197" s="4" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
     </row>
     <row r="198" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -9811,20 +9800,20 @@
         <v>212</v>
       </c>
       <c r="F198" s="4" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="G198" s="8">
         <v>5</v>
       </c>
       <c r="H198" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I198" s="5"/>
       <c r="J198" s="4" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="K198" s="4" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="199" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -9844,20 +9833,20 @@
         <v>213</v>
       </c>
       <c r="F199" s="4" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="G199" s="8">
         <v>4</v>
       </c>
       <c r="H199" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I199" s="5"/>
       <c r="J199" s="4" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="K199" s="4" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
     </row>
     <row r="200" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -9877,20 +9866,20 @@
         <v>214</v>
       </c>
       <c r="F200" s="4" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="G200" s="8">
         <v>5</v>
       </c>
       <c r="H200" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I200" s="5"/>
       <c r="J200" s="4" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="K200" s="4" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="201" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -9910,20 +9899,20 @@
         <v>215</v>
       </c>
       <c r="F201" s="4" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="G201" s="8">
         <v>7</v>
       </c>
       <c r="H201" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I201" s="5"/>
       <c r="J201" s="4" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="K201" s="4" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="202" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -9943,7 +9932,7 @@
         <v>216</v>
       </c>
       <c r="F202" s="4" t="s">
-        <v>486</v>
+        <v>10</v>
       </c>
       <c r="G202" s="8">
         <v>1</v>
@@ -9955,10 +9944,10 @@
         <v>112</v>
       </c>
       <c r="J202" s="4" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="K202" s="4" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
     </row>
     <row r="203" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -9978,20 +9967,20 @@
         <v>217</v>
       </c>
       <c r="F203" s="4" t="s">
-        <v>486</v>
+        <v>10</v>
       </c>
       <c r="G203" s="8">
         <v>1</v>
       </c>
       <c r="H203" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I203" s="5"/>
       <c r="J203" s="4" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="K203" s="4" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
     </row>
     <row r="204" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -10011,20 +10000,20 @@
         <v>218</v>
       </c>
       <c r="F204" s="4" t="s">
-        <v>486</v>
+        <v>10</v>
       </c>
       <c r="G204" s="8">
         <v>1</v>
       </c>
       <c r="H204" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I204" s="5"/>
       <c r="J204" s="4" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="K204" s="4" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
     </row>
     <row r="205" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -10044,22 +10033,22 @@
         <v>219</v>
       </c>
       <c r="F205" s="4" t="s">
-        <v>486</v>
+        <v>10</v>
       </c>
       <c r="G205" s="8">
         <v>1</v>
       </c>
       <c r="H205" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I205" s="4" t="s">
         <v>112</v>
       </c>
       <c r="J205" s="4" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="K205" s="4" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
     </row>
     <row r="206" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -10085,14 +10074,14 @@
         <v>1</v>
       </c>
       <c r="H206" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I206" s="5"/>
       <c r="J206" s="4" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="K206" s="4" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
     </row>
     <row r="207" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -10118,14 +10107,14 @@
         <v>1</v>
       </c>
       <c r="H207" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I207" s="5"/>
       <c r="J207" s="4" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="K207" s="4" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
     </row>
     <row r="208" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -10145,20 +10134,20 @@
         <v>221</v>
       </c>
       <c r="F208" s="4" t="s">
-        <v>499</v>
+        <v>26</v>
       </c>
       <c r="G208" s="8">
         <v>2</v>
       </c>
       <c r="H208" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I208" s="5"/>
       <c r="J208" s="4" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="K208" s="4" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
     </row>
     <row r="209" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -10178,20 +10167,20 @@
         <v>222</v>
       </c>
       <c r="F209" s="4" t="s">
-        <v>499</v>
+        <v>26</v>
       </c>
       <c r="G209" s="8">
         <v>1</v>
       </c>
       <c r="H209" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I209" s="5"/>
       <c r="J209" s="4" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="K209" s="4" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
     </row>
     <row r="210" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -10211,20 +10200,20 @@
         <v>223</v>
       </c>
       <c r="F210" s="4" t="s">
-        <v>499</v>
+        <v>26</v>
       </c>
       <c r="G210" s="8">
         <v>1</v>
       </c>
       <c r="H210" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I210" s="5"/>
       <c r="J210" s="4" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="K210" s="4" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
     </row>
     <row r="211" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -10244,20 +10233,20 @@
         <v>224</v>
       </c>
       <c r="F211" s="4" t="s">
-        <v>499</v>
+        <v>26</v>
       </c>
       <c r="G211" s="8">
         <v>1</v>
       </c>
       <c r="H211" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I211" s="5"/>
       <c r="J211" s="4" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="K211" s="4" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
     </row>
     <row r="212" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -10283,14 +10272,14 @@
         <v>1</v>
       </c>
       <c r="H212" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I212" s="5"/>
       <c r="J212" s="4" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="K212" s="4" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
     </row>
     <row r="213" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -10310,20 +10299,20 @@
         <v>226</v>
       </c>
       <c r="F213" s="4" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="G213" s="8">
         <v>10</v>
       </c>
       <c r="H213" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I213" s="5"/>
       <c r="J213" s="4" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="K213" s="4" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
     </row>
     <row r="214" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -10343,20 +10332,20 @@
         <v>227</v>
       </c>
       <c r="F214" s="4" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="G214" s="8">
         <v>12</v>
       </c>
       <c r="H214" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I214" s="5"/>
       <c r="J214" s="4" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="K214" s="4" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
     </row>
     <row r="215" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -10376,20 +10365,20 @@
         <v>228</v>
       </c>
       <c r="F215" s="4" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="G215" s="8">
         <v>8</v>
       </c>
       <c r="H215" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I215" s="5"/>
       <c r="J215" s="4" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="K215" s="4" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
     </row>
     <row r="216" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -10409,20 +10398,20 @@
         <v>229</v>
       </c>
       <c r="F216" s="4" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="G216" s="8">
         <v>13</v>
       </c>
       <c r="H216" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I216" s="5"/>
       <c r="J216" s="4" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="K216" s="4" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
     </row>
     <row r="217" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -10442,20 +10431,20 @@
         <v>230</v>
       </c>
       <c r="F217" s="4" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="G217" s="8">
         <v>4</v>
       </c>
       <c r="H217" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I217" s="5"/>
       <c r="J217" s="4" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="K217" s="4" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
     </row>
     <row r="218" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -10475,7 +10464,7 @@
         <v>231</v>
       </c>
       <c r="F218" s="4" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="G218" s="8">
         <v>9</v>
@@ -10485,10 +10474,10 @@
       </c>
       <c r="I218" s="5"/>
       <c r="J218" s="4" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="K218" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="219" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -10514,14 +10503,14 @@
         <v>1</v>
       </c>
       <c r="H219" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I219" s="5"/>
       <c r="J219" s="4" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="K219" s="4" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
     </row>
     <row r="220" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -10547,14 +10536,14 @@
         <v>1</v>
       </c>
       <c r="H220" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I220" s="5"/>
       <c r="J220" s="4" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="K220" s="4" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
     </row>
     <row r="221" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -10574,20 +10563,20 @@
         <v>234</v>
       </c>
       <c r="F221" s="4" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="G221" s="8">
         <v>5</v>
       </c>
       <c r="H221" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I221" s="5"/>
       <c r="J221" s="4" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="K221" s="4" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
     </row>
     <row r="222" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -10613,14 +10602,14 @@
         <v>2</v>
       </c>
       <c r="H222" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I222" s="5"/>
       <c r="J222" s="4" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="K222" s="4" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
     </row>
     <row r="223" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -10646,14 +10635,14 @@
         <v>1</v>
       </c>
       <c r="H223" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I223" s="5"/>
       <c r="J223" s="4" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="K223" s="4" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
     </row>
     <row r="224" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -10673,7 +10662,7 @@
         <v>237</v>
       </c>
       <c r="F224" s="4" t="s">
-        <v>531</v>
+        <v>26</v>
       </c>
       <c r="G224" s="8">
         <v>1</v>
@@ -10682,13 +10671,13 @@
         <v>16</v>
       </c>
       <c r="I224" s="4" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="J224" s="4" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="K224" s="4" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
     </row>
     <row r="225" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -10708,7 +10697,7 @@
         <v>238</v>
       </c>
       <c r="F225" s="4" t="s">
-        <v>535</v>
+        <v>26</v>
       </c>
       <c r="G225" s="8">
         <v>1</v>
@@ -10717,13 +10706,13 @@
         <v>16</v>
       </c>
       <c r="I225" s="4" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="J225" s="4" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="K225" s="4" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
     </row>
     <row r="226" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -10743,7 +10732,7 @@
         <v>239</v>
       </c>
       <c r="F226" s="4" t="s">
-        <v>538</v>
+        <v>10</v>
       </c>
       <c r="G226" s="8">
         <v>1</v>
@@ -10752,13 +10741,13 @@
         <v>16</v>
       </c>
       <c r="I226" s="4" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="J226" s="4" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="K226" s="4" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
     </row>
     <row r="227" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -10778,7 +10767,7 @@
         <v>240</v>
       </c>
       <c r="F227" s="4" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="G227" s="8">
         <v>15</v>
@@ -10790,10 +10779,10 @@
         <v>83</v>
       </c>
       <c r="J227" s="4" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="K227" s="4" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
     </row>
     <row r="228" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -10813,22 +10802,22 @@
         <v>241</v>
       </c>
       <c r="F228" s="4" t="s">
-        <v>538</v>
+        <v>10</v>
       </c>
       <c r="G228" s="8">
         <v>1</v>
       </c>
       <c r="H228" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I228" s="4" t="s">
         <v>112</v>
       </c>
       <c r="J228" s="4" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="K228" s="4" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="229" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -10848,20 +10837,20 @@
         <v>242</v>
       </c>
       <c r="F229" s="4" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="G229" s="8">
         <v>8</v>
       </c>
       <c r="H229" s="4" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="I229" s="5"/>
       <c r="J229" s="4" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="K229" s="4" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="230" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -10881,7 +10870,7 @@
         <v>243</v>
       </c>
       <c r="F230" s="4" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="G230" s="8">
         <v>12</v>
@@ -10891,10 +10880,10 @@
       </c>
       <c r="I230" s="5"/>
       <c r="J230" s="4" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="K230" s="4" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
     </row>
     <row r="231" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -10914,7 +10903,7 @@
         <v>244</v>
       </c>
       <c r="F231" s="4" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="G231" s="8">
         <v>5</v>
@@ -10924,10 +10913,10 @@
       </c>
       <c r="I231" s="5"/>
       <c r="J231" s="4" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="K231" s="4" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
     </row>
     <row r="232" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -10947,7 +10936,7 @@
         <v>245</v>
       </c>
       <c r="F232" s="4" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="G232" s="8">
         <v>8</v>
@@ -10956,13 +10945,13 @@
         <v>11</v>
       </c>
       <c r="I232" s="4" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="J232" s="4" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="K232" s="4" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
     </row>
     <row r="233" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -10982,22 +10971,22 @@
         <v>246</v>
       </c>
       <c r="F233" s="4" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="G233" s="8">
         <v>5</v>
       </c>
       <c r="H233" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I233" s="4" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="J233" s="4" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="K233" s="4" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
     </row>
     <row r="234" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -11017,22 +11006,22 @@
         <v>248</v>
       </c>
       <c r="F234" s="4" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="G234" s="8">
         <v>3</v>
       </c>
       <c r="H234" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I234" s="4" t="s">
         <v>83</v>
       </c>
       <c r="J234" s="4" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="K234" s="4" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
     </row>
     <row r="235" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -11052,22 +11041,22 @@
         <v>249</v>
       </c>
       <c r="F235" s="4" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="G235" s="8">
         <v>2</v>
       </c>
       <c r="H235" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I235" s="4" t="s">
         <v>83</v>
       </c>
       <c r="J235" s="4" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="K235" s="4" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
     </row>
     <row r="236" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -11087,20 +11076,20 @@
         <v>250</v>
       </c>
       <c r="F236" s="4" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="G236" s="8">
         <v>3</v>
       </c>
       <c r="H236" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I236" s="5"/>
       <c r="J236" s="4" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="K236" s="4" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
     </row>
     <row r="237" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -11120,20 +11109,20 @@
         <v>251</v>
       </c>
       <c r="F237" s="4" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="G237" s="8">
         <v>12</v>
       </c>
       <c r="H237" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I237" s="5"/>
       <c r="J237" s="4" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="K237" s="4" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
     </row>
     <row r="238" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -11153,20 +11142,20 @@
         <v>252</v>
       </c>
       <c r="F238" s="4" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="G238" s="8">
         <v>2</v>
       </c>
       <c r="H238" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I238" s="5"/>
       <c r="J238" s="4" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="K238" s="4" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
     </row>
     <row r="239" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -11209,6 +11198,7 @@
       <c r="K241" s="5"/>
     </row>
   </sheetData>
+  <autoFilter ref="F1:F241" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>
   <headerFooter>

--- a/data/datos_avistamientos.xlsx
+++ b/data/datos_avistamientos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/59011/Downloads/avistamiento_ballenas/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE491B75-6933-B140-8AAE-0AB081F54AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3717F93-0D09-404C-9DF0-D555C267F88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-51200" yWindow="-8000" windowWidth="25600" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1261,36 +1261,6 @@
     <t>-73.62829499999999</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ballena azul (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>Balaenoptera musculus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Ejemplares de ballenas adultas </t>
   </si>
   <si>
@@ -2207,6 +2177,9 @@
   </si>
   <si>
     <t>chun</t>
+  </si>
+  <si>
+    <t>Ballena azul (Balaenoptera musculus)</t>
   </si>
 </sst>
 </file>
@@ -3514,8 +3487,8 @@
   <dimension ref="A1:O576"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M13" sqref="M13"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F586" sqref="F586"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3550,7 +3523,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>5</v>
@@ -3566,7 +3539,7 @@
       </c>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6">
         <v>44932</v>
       </c>
@@ -3632,7 +3605,7 @@
       </c>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>44932</v>
       </c>
@@ -3665,7 +3638,7 @@
       </c>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>44932</v>
       </c>
@@ -3923,7 +3896,7 @@
       </c>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>44932</v>
       </c>
@@ -3956,7 +3929,7 @@
       </c>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>44937</v>
       </c>
@@ -4117,10 +4090,10 @@
       </c>
       <c r="K18" s="5"/>
       <c r="O18" s="11" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>44937</v>
       </c>
@@ -4151,7 +4124,7 @@
       </c>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="1:15" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:15" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>44937</v>
       </c>
@@ -4182,7 +4155,7 @@
       </c>
       <c r="K20" s="5"/>
     </row>
-    <row r="21" spans="1:15" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:15" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>44937</v>
       </c>
@@ -4215,7 +4188,7 @@
       </c>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="1:15" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:15" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>44574</v>
       </c>
@@ -4609,7 +4582,7 @@
       </c>
       <c r="K33" s="5"/>
     </row>
-    <row r="34" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6">
         <v>44952</v>
       </c>
@@ -4640,7 +4613,7 @@
       </c>
       <c r="K34" s="5"/>
     </row>
-    <row r="35" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="6">
         <v>44952</v>
       </c>
@@ -4702,7 +4675,7 @@
       </c>
       <c r="K36" s="5"/>
     </row>
-    <row r="37" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="6">
         <v>44952</v>
       </c>
@@ -4768,7 +4741,7 @@
       </c>
       <c r="K38" s="5"/>
     </row>
-    <row r="39" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="6">
         <v>44978</v>
       </c>
@@ -4834,7 +4807,7 @@
       </c>
       <c r="K40" s="5"/>
     </row>
-    <row r="41" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="6">
         <v>44978</v>
       </c>
@@ -4867,7 +4840,7 @@
       </c>
       <c r="K41" s="5"/>
     </row>
-    <row r="42" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="6">
         <v>44978</v>
       </c>
@@ -4900,7 +4873,7 @@
       </c>
       <c r="K42" s="5"/>
     </row>
-    <row r="43" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="6">
         <v>44978</v>
       </c>
@@ -4933,7 +4906,7 @@
       </c>
       <c r="K43" s="5"/>
     </row>
-    <row r="44" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="6">
         <v>44978</v>
       </c>
@@ -5191,7 +5164,7 @@
       </c>
       <c r="K51" s="5"/>
     </row>
-    <row r="52" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="6">
         <v>44979</v>
       </c>
@@ -5224,7 +5197,7 @@
       </c>
       <c r="K52" s="5"/>
     </row>
-    <row r="53" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="6">
         <v>44979</v>
       </c>
@@ -5257,7 +5230,7 @@
       </c>
       <c r="K53" s="5"/>
     </row>
-    <row r="54" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="9">
         <v>44979</v>
       </c>
@@ -5290,7 +5263,7 @@
       </c>
       <c r="K54" s="5"/>
     </row>
-    <row r="55" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="6">
         <v>44979</v>
       </c>
@@ -5323,7 +5296,7 @@
       </c>
       <c r="K55" s="5"/>
     </row>
-    <row r="56" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6">
         <v>44979</v>
       </c>
@@ -5356,7 +5329,7 @@
       </c>
       <c r="K56" s="5"/>
     </row>
-    <row r="57" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6">
         <v>44979</v>
       </c>
@@ -5420,7 +5393,7 @@
       </c>
       <c r="K58" s="5"/>
     </row>
-    <row r="59" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="6">
         <v>44979</v>
       </c>
@@ -5482,7 +5455,7 @@
       </c>
       <c r="K60" s="5"/>
     </row>
-    <row r="61" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="6">
         <v>44979</v>
       </c>
@@ -5701,7 +5674,7 @@
       </c>
       <c r="K67" s="5"/>
     </row>
-    <row r="68" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="6">
         <v>44984</v>
       </c>
@@ -5732,7 +5705,7 @@
       </c>
       <c r="K68" s="5"/>
     </row>
-    <row r="69" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="6">
         <v>44984</v>
       </c>
@@ -5763,7 +5736,7 @@
       </c>
       <c r="K69" s="5"/>
     </row>
-    <row r="70" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="6">
         <v>44984</v>
       </c>
@@ -5796,7 +5769,7 @@
       </c>
       <c r="K70" s="5"/>
     </row>
-    <row r="71" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="6">
         <v>44984</v>
       </c>
@@ -5827,7 +5800,7 @@
       </c>
       <c r="K71" s="5"/>
     </row>
-    <row r="72" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="6">
         <v>44985</v>
       </c>
@@ -5889,7 +5862,7 @@
       </c>
       <c r="K73" s="5"/>
     </row>
-    <row r="74" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="6">
         <v>44985</v>
       </c>
@@ -6013,7 +5986,7 @@
       </c>
       <c r="K77" s="5"/>
     </row>
-    <row r="78" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="6">
         <v>44985</v>
       </c>
@@ -6044,7 +6017,7 @@
       </c>
       <c r="K78" s="5"/>
     </row>
-    <row r="79" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="6">
         <v>44985</v>
       </c>
@@ -6267,7 +6240,7 @@
       </c>
       <c r="K85" s="5"/>
     </row>
-    <row r="86" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="6">
         <v>45007</v>
       </c>
@@ -6661,7 +6634,7 @@
       </c>
       <c r="K97" s="5"/>
     </row>
-    <row r="98" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="6">
         <v>45007</v>
       </c>
@@ -6727,7 +6700,7 @@
       </c>
       <c r="K99" s="5"/>
     </row>
-    <row r="100" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="6">
         <v>45007</v>
       </c>
@@ -6826,7 +6799,7 @@
       </c>
       <c r="K102" s="5"/>
     </row>
-    <row r="103" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="6">
         <v>45007</v>
       </c>
@@ -6890,7 +6863,7 @@
       </c>
       <c r="K104" s="5"/>
     </row>
-    <row r="105" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="6">
         <v>45007</v>
       </c>
@@ -6956,7 +6929,7 @@
       </c>
       <c r="K106" s="5"/>
     </row>
-    <row r="107" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="6">
         <v>45007</v>
       </c>
@@ -6987,7 +6960,7 @@
       </c>
       <c r="K107" s="5"/>
     </row>
-    <row r="108" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="6">
         <v>45007</v>
       </c>
@@ -7449,7 +7422,7 @@
       </c>
       <c r="K121" s="5"/>
     </row>
-    <row r="122" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="6">
         <v>45009</v>
       </c>
@@ -7515,7 +7488,7 @@
       </c>
       <c r="K123" s="5"/>
     </row>
-    <row r="124" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="6">
         <v>45009</v>
       </c>
@@ -7579,7 +7552,7 @@
       </c>
       <c r="K125" s="5"/>
     </row>
-    <row r="126" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="6">
         <v>45009</v>
       </c>
@@ -7610,7 +7583,7 @@
       </c>
       <c r="K126" s="5"/>
     </row>
-    <row r="127" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="6">
         <v>45009</v>
       </c>
@@ -7641,7 +7614,7 @@
       </c>
       <c r="K127" s="5"/>
     </row>
-    <row r="128" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="6">
         <v>45009</v>
       </c>
@@ -7703,7 +7676,7 @@
       </c>
       <c r="K129" s="5"/>
     </row>
-    <row r="130" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="6">
         <v>45009</v>
       </c>
@@ -7736,7 +7709,7 @@
       </c>
       <c r="K130" s="5"/>
     </row>
-    <row r="131" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="6">
         <v>45009</v>
       </c>
@@ -7769,7 +7742,7 @@
       </c>
       <c r="K131" s="5"/>
     </row>
-    <row r="132" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="6">
         <v>45009</v>
       </c>
@@ -7901,7 +7874,7 @@
       </c>
       <c r="K135" s="5"/>
     </row>
-    <row r="136" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="6">
         <v>45015</v>
       </c>
@@ -8095,7 +8068,7 @@
       </c>
       <c r="K141" s="5"/>
     </row>
-    <row r="142" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="6">
         <v>45015</v>
       </c>
@@ -8128,7 +8101,7 @@
       </c>
       <c r="K142" s="5"/>
     </row>
-    <row r="143" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="6">
         <v>45015</v>
       </c>
@@ -8159,7 +8132,7 @@
       </c>
       <c r="K143" s="5"/>
     </row>
-    <row r="144" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="6">
         <v>45015</v>
       </c>
@@ -8190,7 +8163,7 @@
       </c>
       <c r="K144" s="5"/>
     </row>
-    <row r="145" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="6">
         <v>45015</v>
       </c>
@@ -8254,7 +8227,7 @@
       </c>
       <c r="K146" s="5"/>
     </row>
-    <row r="147" spans="1:11" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="6">
         <v>45019</v>
       </c>
@@ -8268,7 +8241,7 @@
         <v>3000</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>349</v>
+        <v>619</v>
       </c>
       <c r="F147" s="8">
         <v>2</v>
@@ -8277,13 +8250,13 @@
         <v>46</v>
       </c>
       <c r="H147" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="I147" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="I147" s="4" t="s">
+      <c r="J147" s="4" t="s">
         <v>351</v>
-      </c>
-      <c r="J147" s="4" t="s">
-        <v>352</v>
       </c>
       <c r="K147" s="5"/>
     </row>
@@ -8311,14 +8284,14 @@
       </c>
       <c r="H148" s="5"/>
       <c r="I148" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="J148" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="J148" s="4" t="s">
-        <v>354</v>
-      </c>
       <c r="K148" s="5"/>
     </row>
-    <row r="149" spans="1:11" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="6">
         <v>45019</v>
       </c>
@@ -8332,7 +8305,7 @@
         <v>500</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>349</v>
+        <v>619</v>
       </c>
       <c r="F149" s="8">
         <v>2</v>
@@ -8341,17 +8314,17 @@
         <v>46</v>
       </c>
       <c r="H149" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="I149" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="I149" s="4" t="s">
+      <c r="J149" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="J149" s="4" t="s">
-        <v>357</v>
-      </c>
       <c r="K149" s="5"/>
     </row>
-    <row r="150" spans="1:11" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="6">
         <v>45019</v>
       </c>
@@ -8365,7 +8338,7 @@
         <v>1000</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>349</v>
+        <v>619</v>
       </c>
       <c r="F150" s="8">
         <v>2</v>
@@ -8374,13 +8347,13 @@
         <v>46</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I150" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="J150" s="4" t="s">
         <v>358</v>
-      </c>
-      <c r="J150" s="4" t="s">
-        <v>359</v>
       </c>
       <c r="K150" s="5"/>
     </row>
@@ -8407,13 +8380,13 @@
         <v>46</v>
       </c>
       <c r="H151" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="I151" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="I151" s="4" t="s">
+      <c r="J151" s="4" t="s">
         <v>361</v>
-      </c>
-      <c r="J151" s="4" t="s">
-        <v>362</v>
       </c>
       <c r="K151" s="5"/>
     </row>
@@ -8431,22 +8404,22 @@
         <v>300</v>
       </c>
       <c r="E152" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="F152" s="8">
+        <v>1</v>
+      </c>
+      <c r="G152" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H152" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="F152" s="8">
-        <v>1</v>
-      </c>
-      <c r="G152" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H152" s="4" t="s">
+      <c r="I152" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="I152" s="4" t="s">
+      <c r="J152" s="4" t="s">
         <v>365</v>
-      </c>
-      <c r="J152" s="4" t="s">
-        <v>366</v>
       </c>
       <c r="K152" s="5"/>
     </row>
@@ -8476,14 +8449,14 @@
         <v>270</v>
       </c>
       <c r="I153" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="J153" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="J153" s="4" t="s">
-        <v>368</v>
-      </c>
       <c r="K153" s="5"/>
     </row>
-    <row r="154" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="6">
         <v>45019</v>
       </c>
@@ -8509,14 +8482,14 @@
         <v>107</v>
       </c>
       <c r="I154" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="J154" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="J154" s="4" t="s">
-        <v>370</v>
-      </c>
       <c r="K154" s="5"/>
     </row>
-    <row r="155" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="6">
         <v>45019</v>
       </c>
@@ -8540,14 +8513,14 @@
       </c>
       <c r="H155" s="5"/>
       <c r="I155" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="J155" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="J155" s="4" t="s">
-        <v>372</v>
-      </c>
       <c r="K155" s="5"/>
     </row>
-    <row r="156" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="6">
         <v>45019</v>
       </c>
@@ -8576,11 +8549,11 @@
         <v>275</v>
       </c>
       <c r="J156" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K156" s="5"/>
     </row>
-    <row r="157" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="6">
         <v>45019</v>
       </c>
@@ -8606,14 +8579,14 @@
         <v>107</v>
       </c>
       <c r="I157" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="J157" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="J157" s="4" t="s">
-        <v>375</v>
-      </c>
       <c r="K157" s="5"/>
     </row>
-    <row r="158" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="6">
         <v>45036</v>
       </c>
@@ -8639,14 +8612,14 @@
         <v>107</v>
       </c>
       <c r="I158" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="J158" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="J158" s="4" t="s">
-        <v>377</v>
-      </c>
       <c r="K158" s="5"/>
     </row>
-    <row r="159" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="6">
         <v>45036</v>
       </c>
@@ -8670,10 +8643,10 @@
       </c>
       <c r="H159" s="5"/>
       <c r="I159" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="J159" s="4" t="s">
         <v>378</v>
-      </c>
-      <c r="J159" s="4" t="s">
-        <v>379</v>
       </c>
       <c r="K159" s="5"/>
     </row>
@@ -8703,10 +8676,10 @@
         <v>270</v>
       </c>
       <c r="I160" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="J160" s="4" t="s">
         <v>380</v>
-      </c>
-      <c r="J160" s="4" t="s">
-        <v>381</v>
       </c>
       <c r="K160" s="5"/>
     </row>
@@ -8736,14 +8709,14 @@
         <v>255</v>
       </c>
       <c r="I161" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="J161" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="J161" s="4" t="s">
-        <v>383</v>
-      </c>
       <c r="K161" s="5"/>
     </row>
-    <row r="162" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="6">
         <v>45036</v>
       </c>
@@ -8769,14 +8742,14 @@
         <v>107</v>
       </c>
       <c r="I162" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="J162" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="J162" s="4" t="s">
-        <v>385</v>
-      </c>
       <c r="K162" s="5"/>
     </row>
-    <row r="163" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="6">
         <v>45036</v>
       </c>
@@ -8800,14 +8773,14 @@
       </c>
       <c r="H163" s="5"/>
       <c r="I163" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="J163" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="J163" s="4" t="s">
-        <v>387</v>
-      </c>
       <c r="K163" s="5"/>
     </row>
-    <row r="164" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="6">
         <v>45036</v>
       </c>
@@ -8831,14 +8804,14 @@
       </c>
       <c r="H164" s="5"/>
       <c r="I164" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="J164" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="J164" s="4" t="s">
-        <v>389</v>
-      </c>
       <c r="K164" s="5"/>
     </row>
-    <row r="165" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="6">
         <v>45036</v>
       </c>
@@ -8864,10 +8837,10 @@
         <v>255</v>
       </c>
       <c r="I165" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="J165" s="4" t="s">
         <v>390</v>
-      </c>
-      <c r="J165" s="4" t="s">
-        <v>391</v>
       </c>
       <c r="K165" s="5"/>
     </row>
@@ -8897,10 +8870,10 @@
         <v>255</v>
       </c>
       <c r="I166" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="J166" s="4" t="s">
         <v>392</v>
-      </c>
-      <c r="J166" s="4" t="s">
-        <v>393</v>
       </c>
       <c r="K166" s="5"/>
     </row>
@@ -8928,14 +8901,14 @@
       </c>
       <c r="H167" s="5"/>
       <c r="I167" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="J167" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="J167" s="4" t="s">
-        <v>395</v>
-      </c>
       <c r="K167" s="5"/>
     </row>
-    <row r="168" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="6">
         <v>45036</v>
       </c>
@@ -8959,14 +8932,14 @@
       </c>
       <c r="H168" s="5"/>
       <c r="I168" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="J168" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="J168" s="4" t="s">
-        <v>397</v>
-      </c>
       <c r="K168" s="5"/>
     </row>
-    <row r="169" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="6">
         <v>45036</v>
       </c>
@@ -8990,14 +8963,14 @@
       </c>
       <c r="H169" s="5"/>
       <c r="I169" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="J169" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="J169" s="4" t="s">
-        <v>399</v>
-      </c>
       <c r="K169" s="5"/>
     </row>
-    <row r="170" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="6">
         <v>45036</v>
       </c>
@@ -9021,14 +8994,14 @@
       </c>
       <c r="H170" s="5"/>
       <c r="I170" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="J170" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="J170" s="4" t="s">
-        <v>401</v>
-      </c>
       <c r="K170" s="5"/>
     </row>
-    <row r="171" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="6">
         <v>45036</v>
       </c>
@@ -9051,17 +9024,17 @@
         <v>117</v>
       </c>
       <c r="H171" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="I171" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="I171" s="4" t="s">
+      <c r="J171" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="J171" s="4" t="s">
-        <v>404</v>
-      </c>
       <c r="K171" s="5"/>
     </row>
-    <row r="172" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="6">
         <v>45036</v>
       </c>
@@ -9085,10 +9058,10 @@
       </c>
       <c r="H172" s="5"/>
       <c r="I172" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="J172" s="4" t="s">
         <v>405</v>
-      </c>
-      <c r="J172" s="4" t="s">
-        <v>406</v>
       </c>
       <c r="K172" s="5"/>
     </row>
@@ -9116,10 +9089,10 @@
       </c>
       <c r="H173" s="5"/>
       <c r="I173" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="J173" s="4" t="s">
         <v>407</v>
-      </c>
-      <c r="J173" s="4" t="s">
-        <v>408</v>
       </c>
       <c r="K173" s="5"/>
     </row>
@@ -9147,10 +9120,10 @@
       </c>
       <c r="H174" s="5"/>
       <c r="I174" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="J174" s="4" t="s">
         <v>409</v>
-      </c>
-      <c r="J174" s="4" t="s">
-        <v>410</v>
       </c>
       <c r="K174" s="5"/>
     </row>
@@ -9177,13 +9150,13 @@
         <v>10</v>
       </c>
       <c r="H175" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="I175" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="I175" s="4" t="s">
+      <c r="J175" s="4" t="s">
         <v>412</v>
-      </c>
-      <c r="J175" s="4" t="s">
-        <v>413</v>
       </c>
       <c r="K175" s="5"/>
     </row>
@@ -9211,10 +9184,10 @@
       </c>
       <c r="H176" s="5"/>
       <c r="I176" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="J176" s="4" t="s">
         <v>414</v>
-      </c>
-      <c r="J176" s="4" t="s">
-        <v>415</v>
       </c>
       <c r="K176" s="5"/>
     </row>
@@ -9242,14 +9215,14 @@
       </c>
       <c r="H177" s="5"/>
       <c r="I177" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="J177" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="J177" s="4" t="s">
-        <v>417</v>
-      </c>
       <c r="K177" s="5"/>
     </row>
-    <row r="178" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="6">
         <v>45036</v>
       </c>
@@ -9273,14 +9246,14 @@
       </c>
       <c r="H178" s="5"/>
       <c r="I178" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="J178" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="J178" s="4" t="s">
-        <v>419</v>
-      </c>
       <c r="K178" s="5"/>
     </row>
-    <row r="179" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="6">
         <v>45075</v>
       </c>
@@ -9300,18 +9273,18 @@
         <v>1</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H179" s="5"/>
       <c r="I179" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="J179" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="J179" s="4" t="s">
-        <v>422</v>
-      </c>
       <c r="K179" s="5"/>
     </row>
-    <row r="180" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="6">
         <v>45075</v>
       </c>
@@ -9331,14 +9304,14 @@
         <v>1</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H180" s="5"/>
       <c r="I180" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="J180" s="4" t="s">
         <v>424</v>
-      </c>
-      <c r="J180" s="4" t="s">
-        <v>425</v>
       </c>
       <c r="K180" s="5"/>
     </row>
@@ -9366,10 +9339,10 @@
       </c>
       <c r="H181" s="5"/>
       <c r="I181" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="J181" s="4" t="s">
         <v>426</v>
-      </c>
-      <c r="J181" s="4" t="s">
-        <v>427</v>
       </c>
       <c r="K181" s="5"/>
     </row>
@@ -9393,14 +9366,14 @@
         <v>1</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H182" s="5"/>
       <c r="I182" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="J182" s="4" t="s">
         <v>428</v>
-      </c>
-      <c r="J182" s="4" t="s">
-        <v>429</v>
       </c>
       <c r="K182" s="5"/>
     </row>
@@ -9424,14 +9397,14 @@
         <v>1</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H183" s="5"/>
       <c r="I183" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="J183" s="4" t="s">
         <v>430</v>
-      </c>
-      <c r="J183" s="4" t="s">
-        <v>431</v>
       </c>
       <c r="K183" s="5"/>
     </row>
@@ -9459,10 +9432,10 @@
       </c>
       <c r="H184" s="5"/>
       <c r="I184" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="J184" s="4" t="s">
         <v>432</v>
-      </c>
-      <c r="J184" s="4" t="s">
-        <v>433</v>
       </c>
       <c r="K184" s="5"/>
     </row>
@@ -9490,10 +9463,10 @@
       </c>
       <c r="H185" s="5"/>
       <c r="I185" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="J185" s="4" t="s">
         <v>434</v>
-      </c>
-      <c r="J185" s="4" t="s">
-        <v>435</v>
       </c>
       <c r="K185" s="5"/>
     </row>
@@ -9523,14 +9496,14 @@
         <v>107</v>
       </c>
       <c r="I186" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="J186" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="J186" s="4" t="s">
-        <v>437</v>
-      </c>
       <c r="K186" s="5"/>
     </row>
-    <row r="187" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="6">
         <v>45075</v>
       </c>
@@ -9556,14 +9529,14 @@
         <v>107</v>
       </c>
       <c r="I187" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="J187" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="J187" s="4" t="s">
-        <v>439</v>
-      </c>
       <c r="K187" s="5"/>
     </row>
-    <row r="188" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="6">
         <v>45075</v>
       </c>
@@ -9583,14 +9556,14 @@
         <v>1</v>
       </c>
       <c r="G188" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H188" s="5"/>
       <c r="I188" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="J188" s="4" t="s">
         <v>441</v>
-      </c>
-      <c r="J188" s="4" t="s">
-        <v>442</v>
       </c>
       <c r="K188" s="5"/>
     </row>
@@ -9618,10 +9591,10 @@
       </c>
       <c r="H189" s="5"/>
       <c r="I189" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="J189" s="4" t="s">
         <v>443</v>
-      </c>
-      <c r="J189" s="4" t="s">
-        <v>444</v>
       </c>
       <c r="K189" s="5"/>
     </row>
@@ -9639,7 +9612,7 @@
         <v>100</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F190" s="8">
         <v>35</v>
@@ -9649,10 +9622,10 @@
       </c>
       <c r="H190" s="5"/>
       <c r="I190" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="J190" s="4" t="s">
         <v>446</v>
-      </c>
-      <c r="J190" s="4" t="s">
-        <v>447</v>
       </c>
       <c r="K190" s="5"/>
     </row>
@@ -9670,7 +9643,7 @@
         <v>200</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F191" s="8">
         <v>1</v>
@@ -9680,10 +9653,10 @@
       </c>
       <c r="H191" s="5"/>
       <c r="I191" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="J191" s="4" t="s">
         <v>449</v>
-      </c>
-      <c r="J191" s="4" t="s">
-        <v>450</v>
       </c>
       <c r="K191" s="5"/>
     </row>
@@ -9701,7 +9674,7 @@
         <v>200</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F192" s="8">
         <v>10</v>
@@ -9711,10 +9684,10 @@
       </c>
       <c r="H192" s="5"/>
       <c r="I192" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="J192" s="4" t="s">
         <v>451</v>
-      </c>
-      <c r="J192" s="4" t="s">
-        <v>452</v>
       </c>
       <c r="K192" s="5"/>
     </row>
@@ -9732,7 +9705,7 @@
         <v>100</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F193" s="8">
         <v>16</v>
@@ -9742,10 +9715,10 @@
       </c>
       <c r="H193" s="5"/>
       <c r="I193" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="J193" s="4" t="s">
         <v>453</v>
-      </c>
-      <c r="J193" s="4" t="s">
-        <v>454</v>
       </c>
       <c r="K193" s="5"/>
     </row>
@@ -9763,7 +9736,7 @@
         <v>300</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F194" s="8">
         <v>5</v>
@@ -9773,10 +9746,10 @@
       </c>
       <c r="H194" s="5"/>
       <c r="I194" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="J194" s="4" t="s">
         <v>455</v>
-      </c>
-      <c r="J194" s="4" t="s">
-        <v>456</v>
       </c>
       <c r="K194" s="5"/>
     </row>
@@ -9794,7 +9767,7 @@
         <v>50</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F195" s="8">
         <v>4</v>
@@ -9804,10 +9777,10 @@
       </c>
       <c r="H195" s="5"/>
       <c r="I195" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="J195" s="4" t="s">
         <v>457</v>
-      </c>
-      <c r="J195" s="4" t="s">
-        <v>458</v>
       </c>
       <c r="K195" s="5"/>
     </row>
@@ -9825,7 +9798,7 @@
         <v>100</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F196" s="8">
         <v>5</v>
@@ -9835,10 +9808,10 @@
       </c>
       <c r="H196" s="5"/>
       <c r="I196" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="J196" s="4" t="s">
         <v>459</v>
-      </c>
-      <c r="J196" s="4" t="s">
-        <v>460</v>
       </c>
       <c r="K196" s="5"/>
     </row>
@@ -9856,7 +9829,7 @@
         <v>100</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F197" s="8">
         <v>7</v>
@@ -9866,14 +9839,14 @@
       </c>
       <c r="H197" s="5"/>
       <c r="I197" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="J197" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="J197" s="4" t="s">
-        <v>462</v>
-      </c>
       <c r="K197" s="5"/>
     </row>
-    <row r="198" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="6">
         <v>45117</v>
       </c>
@@ -9897,14 +9870,14 @@
       </c>
       <c r="H198" s="5"/>
       <c r="I198" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="J198" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="J198" s="4" t="s">
-        <v>464</v>
-      </c>
       <c r="K198" s="5"/>
     </row>
-    <row r="199" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="6">
         <v>45117</v>
       </c>
@@ -9928,14 +9901,14 @@
       </c>
       <c r="H199" s="5"/>
       <c r="I199" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="J199" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="J199" s="4" t="s">
-        <v>466</v>
-      </c>
       <c r="K199" s="5"/>
     </row>
-    <row r="200" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="6">
         <v>45117</v>
       </c>
@@ -9959,14 +9932,14 @@
       </c>
       <c r="H200" s="5"/>
       <c r="I200" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="J200" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="J200" s="4" t="s">
-        <v>468</v>
-      </c>
       <c r="K200" s="5"/>
     </row>
-    <row r="201" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="6">
         <v>45117</v>
       </c>
@@ -9990,10 +9963,10 @@
       </c>
       <c r="H201" s="5"/>
       <c r="I201" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="J201" s="4" t="s">
         <v>469</v>
-      </c>
-      <c r="J201" s="4" t="s">
-        <v>470</v>
       </c>
       <c r="K201" s="5"/>
     </row>
@@ -10021,14 +9994,14 @@
       </c>
       <c r="H202" s="5"/>
       <c r="I202" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="J202" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="J202" s="4" t="s">
-        <v>472</v>
-      </c>
       <c r="K202" s="5"/>
     </row>
-    <row r="203" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="6">
         <v>45142</v>
       </c>
@@ -10052,10 +10025,10 @@
       </c>
       <c r="H203" s="5"/>
       <c r="I203" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="J203" s="4" t="s">
         <v>473</v>
-      </c>
-      <c r="J203" s="4" t="s">
-        <v>474</v>
       </c>
       <c r="K203" s="5"/>
     </row>
@@ -10083,10 +10056,10 @@
       </c>
       <c r="H204" s="5"/>
       <c r="I204" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="J204" s="4" t="s">
         <v>475</v>
-      </c>
-      <c r="J204" s="4" t="s">
-        <v>476</v>
       </c>
       <c r="K204" s="5"/>
     </row>
@@ -10114,10 +10087,10 @@
       </c>
       <c r="H205" s="5"/>
       <c r="I205" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="J205" s="4" t="s">
         <v>477</v>
-      </c>
-      <c r="J205" s="4" t="s">
-        <v>478</v>
       </c>
       <c r="K205" s="5"/>
     </row>
@@ -10145,10 +10118,10 @@
       </c>
       <c r="H206" s="5"/>
       <c r="I206" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="J206" s="4" t="s">
         <v>479</v>
-      </c>
-      <c r="J206" s="4" t="s">
-        <v>480</v>
       </c>
       <c r="K206" s="5"/>
     </row>
@@ -10176,14 +10149,14 @@
       </c>
       <c r="H207" s="5"/>
       <c r="I207" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="J207" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="J207" s="4" t="s">
-        <v>482</v>
-      </c>
       <c r="K207" s="5"/>
     </row>
-    <row r="208" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="6">
         <v>45142</v>
       </c>
@@ -10207,10 +10180,10 @@
       </c>
       <c r="H208" s="5"/>
       <c r="I208" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="J208" s="4" t="s">
         <v>483</v>
-      </c>
-      <c r="J208" s="4" t="s">
-        <v>484</v>
       </c>
       <c r="K208" s="5"/>
     </row>
@@ -10228,7 +10201,7 @@
         <v>200</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F209" s="8">
         <v>10</v>
@@ -10238,10 +10211,10 @@
       </c>
       <c r="H209" s="5"/>
       <c r="I209" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="J209" s="4" t="s">
         <v>485</v>
-      </c>
-      <c r="J209" s="4" t="s">
-        <v>486</v>
       </c>
       <c r="K209" s="5"/>
     </row>
@@ -10259,7 +10232,7 @@
         <v>300</v>
       </c>
       <c r="E210" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F210" s="8">
         <v>12</v>
@@ -10269,10 +10242,10 @@
       </c>
       <c r="H210" s="5"/>
       <c r="I210" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="J210" s="4" t="s">
         <v>487</v>
-      </c>
-      <c r="J210" s="4" t="s">
-        <v>488</v>
       </c>
       <c r="K210" s="5"/>
     </row>
@@ -10290,7 +10263,7 @@
         <v>200</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F211" s="8">
         <v>8</v>
@@ -10300,10 +10273,10 @@
       </c>
       <c r="H211" s="5"/>
       <c r="I211" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="J211" s="4" t="s">
         <v>489</v>
-      </c>
-      <c r="J211" s="4" t="s">
-        <v>490</v>
       </c>
       <c r="K211" s="5"/>
     </row>
@@ -10321,7 +10294,7 @@
         <v>100</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F212" s="8">
         <v>13</v>
@@ -10331,10 +10304,10 @@
       </c>
       <c r="H212" s="5"/>
       <c r="I212" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="J212" s="4" t="s">
         <v>491</v>
-      </c>
-      <c r="J212" s="4" t="s">
-        <v>492</v>
       </c>
       <c r="K212" s="5"/>
     </row>
@@ -10352,7 +10325,7 @@
         <v>50</v>
       </c>
       <c r="E213" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F213" s="8">
         <v>4</v>
@@ -10362,10 +10335,10 @@
       </c>
       <c r="H213" s="5"/>
       <c r="I213" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="J213" s="4" t="s">
         <v>493</v>
-      </c>
-      <c r="J213" s="4" t="s">
-        <v>494</v>
       </c>
       <c r="K213" s="5"/>
     </row>
@@ -10383,7 +10356,7 @@
         <v>20</v>
       </c>
       <c r="E214" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F214" s="8">
         <v>9</v>
@@ -10393,14 +10366,14 @@
       </c>
       <c r="H214" s="5"/>
       <c r="I214" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J214" s="4" t="s">
         <v>197</v>
       </c>
       <c r="K214" s="5"/>
     </row>
-    <row r="215" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="6">
         <v>45142</v>
       </c>
@@ -10424,14 +10397,14 @@
       </c>
       <c r="H215" s="5"/>
       <c r="I215" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="J215" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="J215" s="4" t="s">
-        <v>497</v>
-      </c>
       <c r="K215" s="5"/>
     </row>
-    <row r="216" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="6">
         <v>45142</v>
       </c>
@@ -10455,10 +10428,10 @@
       </c>
       <c r="H216" s="5"/>
       <c r="I216" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="J216" s="4" t="s">
         <v>498</v>
-      </c>
-      <c r="J216" s="4" t="s">
-        <v>499</v>
       </c>
       <c r="K216" s="5"/>
     </row>
@@ -10476,7 +10449,7 @@
         <v>300</v>
       </c>
       <c r="E217" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F217" s="8">
         <v>5</v>
@@ -10486,14 +10459,14 @@
       </c>
       <c r="H217" s="5"/>
       <c r="I217" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="J217" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="J217" s="4" t="s">
-        <v>501</v>
-      </c>
       <c r="K217" s="5"/>
     </row>
-    <row r="218" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="6">
         <v>45142</v>
       </c>
@@ -10517,14 +10490,14 @@
       </c>
       <c r="H218" s="5"/>
       <c r="I218" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="J218" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="J218" s="4" t="s">
-        <v>503</v>
-      </c>
       <c r="K218" s="5"/>
     </row>
-    <row r="219" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="6">
         <v>45142</v>
       </c>
@@ -10548,10 +10521,10 @@
       </c>
       <c r="H219" s="5"/>
       <c r="I219" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="J219" s="4" t="s">
         <v>504</v>
-      </c>
-      <c r="J219" s="4" t="s">
-        <v>505</v>
       </c>
       <c r="K219" s="5"/>
     </row>
@@ -10579,10 +10552,10 @@
       </c>
       <c r="H220" s="5"/>
       <c r="I220" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="J220" s="4" t="s">
         <v>506</v>
-      </c>
-      <c r="J220" s="4" t="s">
-        <v>507</v>
       </c>
       <c r="K220" s="5"/>
     </row>
@@ -10610,14 +10583,14 @@
       </c>
       <c r="H221" s="5"/>
       <c r="I221" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="J221" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="J221" s="4" t="s">
-        <v>509</v>
-      </c>
       <c r="K221" s="5"/>
     </row>
-    <row r="222" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="6">
         <v>45156</v>
       </c>
@@ -10641,10 +10614,10 @@
       </c>
       <c r="H222" s="5"/>
       <c r="I222" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="J222" s="4" t="s">
         <v>510</v>
-      </c>
-      <c r="J222" s="4" t="s">
-        <v>511</v>
       </c>
       <c r="K222" s="5"/>
     </row>
@@ -10662,7 +10635,7 @@
         <v>200</v>
       </c>
       <c r="E223" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F223" s="8">
         <v>15</v>
@@ -10672,14 +10645,14 @@
       </c>
       <c r="H223" s="5"/>
       <c r="I223" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="J223" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="J223" s="4" t="s">
-        <v>513</v>
-      </c>
       <c r="K223" s="5"/>
     </row>
-    <row r="224" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="6">
         <v>45156</v>
       </c>
@@ -10703,10 +10676,10 @@
       </c>
       <c r="H224" s="5"/>
       <c r="I224" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="J224" s="4" t="s">
         <v>514</v>
-      </c>
-      <c r="J224" s="4" t="s">
-        <v>515</v>
       </c>
       <c r="K224" s="5"/>
     </row>
@@ -10724,20 +10697,20 @@
         <v>200</v>
       </c>
       <c r="E225" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F225" s="8">
         <v>8</v>
       </c>
       <c r="G225" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H225" s="5"/>
       <c r="I225" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="J225" s="4" t="s">
         <v>517</v>
-      </c>
-      <c r="J225" s="4" t="s">
-        <v>518</v>
       </c>
       <c r="K225" s="5"/>
     </row>
@@ -10755,7 +10728,7 @@
         <v>100</v>
       </c>
       <c r="E226" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F226" s="8">
         <v>12</v>
@@ -10765,10 +10738,10 @@
       </c>
       <c r="H226" s="5"/>
       <c r="I226" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="J226" s="4" t="s">
         <v>519</v>
-      </c>
-      <c r="J226" s="4" t="s">
-        <v>520</v>
       </c>
       <c r="K226" s="5"/>
     </row>
@@ -10786,7 +10759,7 @@
         <v>50</v>
       </c>
       <c r="E227" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F227" s="8">
         <v>5</v>
@@ -10796,10 +10769,10 @@
       </c>
       <c r="H227" s="5"/>
       <c r="I227" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="J227" s="4" t="s">
         <v>521</v>
-      </c>
-      <c r="J227" s="4" t="s">
-        <v>522</v>
       </c>
       <c r="K227" s="5"/>
     </row>
@@ -10817,7 +10790,7 @@
         <v>300</v>
       </c>
       <c r="E228" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F228" s="8">
         <v>8</v>
@@ -10827,10 +10800,10 @@
       </c>
       <c r="H228" s="5"/>
       <c r="I228" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="J228" s="4" t="s">
         <v>523</v>
-      </c>
-      <c r="J228" s="4" t="s">
-        <v>524</v>
       </c>
       <c r="K228" s="5"/>
     </row>
@@ -10848,7 +10821,7 @@
         <v>500</v>
       </c>
       <c r="E229" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F229" s="8">
         <v>5</v>
@@ -10858,10 +10831,10 @@
       </c>
       <c r="H229" s="5"/>
       <c r="I229" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="J229" s="4" t="s">
         <v>525</v>
-      </c>
-      <c r="J229" s="4" t="s">
-        <v>526</v>
       </c>
       <c r="K229" s="5"/>
     </row>
@@ -10879,7 +10852,7 @@
         <v>50</v>
       </c>
       <c r="E230" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F230" s="8">
         <v>3</v>
@@ -10889,10 +10862,10 @@
       </c>
       <c r="H230" s="5"/>
       <c r="I230" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="J230" s="4" t="s">
         <v>527</v>
-      </c>
-      <c r="J230" s="4" t="s">
-        <v>528</v>
       </c>
       <c r="K230" s="5"/>
     </row>
@@ -10910,7 +10883,7 @@
         <v>20</v>
       </c>
       <c r="E231" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F231" s="8">
         <v>2</v>
@@ -10920,10 +10893,10 @@
       </c>
       <c r="H231" s="5"/>
       <c r="I231" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="J231" s="4" t="s">
         <v>529</v>
-      </c>
-      <c r="J231" s="4" t="s">
-        <v>530</v>
       </c>
       <c r="K231" s="5"/>
     </row>
@@ -10941,7 +10914,7 @@
         <v>50</v>
       </c>
       <c r="E232" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F232" s="8">
         <v>3</v>
@@ -10951,10 +10924,10 @@
       </c>
       <c r="H232" s="5"/>
       <c r="I232" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="J232" s="4" t="s">
         <v>531</v>
-      </c>
-      <c r="J232" s="4" t="s">
-        <v>532</v>
       </c>
       <c r="K232" s="5"/>
     </row>
@@ -10972,7 +10945,7 @@
         <v>20</v>
       </c>
       <c r="E233" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F233" s="8">
         <v>12</v>
@@ -10982,10 +10955,10 @@
       </c>
       <c r="H233" s="5"/>
       <c r="I233" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="J233" s="4" t="s">
         <v>533</v>
-      </c>
-      <c r="J233" s="4" t="s">
-        <v>534</v>
       </c>
       <c r="K233" s="5"/>
     </row>
@@ -11003,7 +10976,7 @@
         <v>30</v>
       </c>
       <c r="E234" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F234" s="8">
         <v>2</v>
@@ -11013,14 +10986,14 @@
       </c>
       <c r="H234" s="5"/>
       <c r="I234" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="J234" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="J234" s="4" t="s">
-        <v>536</v>
-      </c>
       <c r="K234" s="5"/>
     </row>
-    <row r="235" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="6">
         <v>45175</v>
       </c>
@@ -11082,7 +11055,7 @@
       </c>
       <c r="K236" s="5"/>
     </row>
-    <row r="237" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="6">
         <v>45175</v>
       </c>
@@ -11113,7 +11086,7 @@
       </c>
       <c r="K237" s="5"/>
     </row>
-    <row r="238" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="6">
         <v>45175</v>
       </c>
@@ -11299,7 +11272,7 @@
       </c>
       <c r="K243" s="5"/>
     </row>
-    <row r="244" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="6">
         <v>45178</v>
       </c>
@@ -11361,7 +11334,7 @@
       </c>
       <c r="K245" s="5"/>
     </row>
-    <row r="246" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" s="6">
         <v>45178</v>
       </c>
@@ -11392,7 +11365,7 @@
       </c>
       <c r="K246" s="5"/>
     </row>
-    <row r="247" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" s="6">
         <v>45178</v>
       </c>
@@ -11423,7 +11396,7 @@
       </c>
       <c r="K247" s="5"/>
     </row>
-    <row r="248" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A248" s="6">
         <v>45178</v>
       </c>
@@ -11454,7 +11427,7 @@
       </c>
       <c r="K248" s="5"/>
     </row>
-    <row r="249" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A249" s="6">
         <v>45178</v>
       </c>
@@ -11485,7 +11458,7 @@
       </c>
       <c r="K249" s="5"/>
     </row>
-    <row r="250" spans="1:11" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A250" s="6">
         <v>45178</v>
       </c>
@@ -11499,7 +11472,7 @@
         <v>500</v>
       </c>
       <c r="E250" s="4" t="s">
-        <v>349</v>
+        <v>619</v>
       </c>
       <c r="F250" s="8">
         <v>1</v>
@@ -11509,10 +11482,10 @@
       </c>
       <c r="H250" s="5"/>
       <c r="I250" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="J250" s="4" t="s">
         <v>356</v>
-      </c>
-      <c r="J250" s="4" t="s">
-        <v>357</v>
       </c>
       <c r="K250" s="5"/>
     </row>
@@ -11702,7 +11675,7 @@
       </c>
       <c r="K256" s="5"/>
     </row>
-    <row r="257" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A257" s="6">
         <v>45185</v>
       </c>
@@ -11733,7 +11706,7 @@
       </c>
       <c r="K257" s="5"/>
     </row>
-    <row r="258" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A258" s="6">
         <v>45185</v>
       </c>
@@ -11764,7 +11737,7 @@
       </c>
       <c r="K258" s="5"/>
     </row>
-    <row r="259" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A259" s="9">
         <v>45185</v>
       </c>
@@ -11795,7 +11768,7 @@
       </c>
       <c r="K259" s="5"/>
     </row>
-    <row r="260" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A260" s="6">
         <v>45185</v>
       </c>
@@ -11826,7 +11799,7 @@
       </c>
       <c r="K260" s="5"/>
     </row>
-    <row r="261" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A261" s="6">
         <v>45185</v>
       </c>
@@ -11857,7 +11830,7 @@
       </c>
       <c r="K261" s="5"/>
     </row>
-    <row r="262" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A262" s="6">
         <v>45185</v>
       </c>
@@ -11919,7 +11892,7 @@
       </c>
       <c r="K263" s="5"/>
     </row>
-    <row r="264" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A264" s="6">
         <v>45185</v>
       </c>
@@ -11981,7 +11954,7 @@
       </c>
       <c r="K265" s="5"/>
     </row>
-    <row r="266" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A266" s="6">
         <v>45185</v>
       </c>
@@ -12150,7 +12123,7 @@
         <v>500</v>
       </c>
       <c r="E271" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F271" s="8">
         <v>1</v>
@@ -12198,7 +12171,7 @@
       </c>
       <c r="K272" s="5"/>
     </row>
-    <row r="273" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A273" s="6">
         <v>45192</v>
       </c>
@@ -12229,7 +12202,7 @@
       </c>
       <c r="K273" s="5"/>
     </row>
-    <row r="274" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A274" s="6">
         <v>45192</v>
       </c>
@@ -12260,7 +12233,7 @@
       </c>
       <c r="K274" s="5"/>
     </row>
-    <row r="275" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A275" s="6">
         <v>45192</v>
       </c>
@@ -12291,7 +12264,7 @@
       </c>
       <c r="K275" s="5"/>
     </row>
-    <row r="276" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A276" s="6">
         <v>45193</v>
       </c>
@@ -12315,14 +12288,14 @@
       </c>
       <c r="H276" s="5"/>
       <c r="I276" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="J276" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="J276" s="4" t="s">
-        <v>377</v>
-      </c>
       <c r="K276" s="5"/>
     </row>
-    <row r="277" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A277" s="9">
         <v>45193</v>
       </c>
@@ -12346,10 +12319,10 @@
       </c>
       <c r="H277" s="5"/>
       <c r="I277" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="J277" s="4" t="s">
         <v>378</v>
-      </c>
-      <c r="J277" s="4" t="s">
-        <v>379</v>
       </c>
       <c r="K277" s="5"/>
     </row>
@@ -12377,10 +12350,10 @@
       </c>
       <c r="H278" s="5"/>
       <c r="I278" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="J278" s="4" t="s">
         <v>380</v>
-      </c>
-      <c r="J278" s="4" t="s">
-        <v>381</v>
       </c>
       <c r="K278" s="5"/>
     </row>
@@ -12408,14 +12381,14 @@
       </c>
       <c r="H279" s="5"/>
       <c r="I279" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="J279" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="J279" s="4" t="s">
-        <v>383</v>
-      </c>
       <c r="K279" s="5"/>
     </row>
-    <row r="280" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A280" s="6">
         <v>45193</v>
       </c>
@@ -12439,14 +12412,14 @@
       </c>
       <c r="H280" s="5"/>
       <c r="I280" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="J280" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="J280" s="4" t="s">
-        <v>385</v>
-      </c>
       <c r="K280" s="5"/>
     </row>
-    <row r="281" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A281" s="6">
         <v>45193</v>
       </c>
@@ -12470,14 +12443,14 @@
       </c>
       <c r="H281" s="5"/>
       <c r="I281" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="J281" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="J281" s="4" t="s">
-        <v>387</v>
-      </c>
       <c r="K281" s="5"/>
     </row>
-    <row r="282" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A282" s="6">
         <v>45193</v>
       </c>
@@ -12501,14 +12474,14 @@
       </c>
       <c r="H282" s="5"/>
       <c r="I282" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="J282" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="J282" s="4" t="s">
-        <v>389</v>
-      </c>
       <c r="K282" s="5"/>
     </row>
-    <row r="283" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A283" s="6">
         <v>45193</v>
       </c>
@@ -12532,10 +12505,10 @@
       </c>
       <c r="H283" s="5"/>
       <c r="I283" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="J283" s="4" t="s">
         <v>390</v>
-      </c>
-      <c r="J283" s="4" t="s">
-        <v>391</v>
       </c>
       <c r="K283" s="5"/>
     </row>
@@ -12563,10 +12536,10 @@
       </c>
       <c r="H284" s="5"/>
       <c r="I284" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="J284" s="4" t="s">
         <v>392</v>
-      </c>
-      <c r="J284" s="4" t="s">
-        <v>393</v>
       </c>
       <c r="K284" s="5"/>
     </row>
@@ -12594,14 +12567,14 @@
       </c>
       <c r="H285" s="5"/>
       <c r="I285" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="J285" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="J285" s="4" t="s">
-        <v>395</v>
-      </c>
       <c r="K285" s="5"/>
     </row>
-    <row r="286" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A286" s="6">
         <v>45193</v>
       </c>
@@ -12625,14 +12598,14 @@
       </c>
       <c r="H286" s="5"/>
       <c r="I286" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="J286" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="J286" s="4" t="s">
-        <v>397</v>
-      </c>
       <c r="K286" s="5"/>
     </row>
-    <row r="287" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A287" s="6">
         <v>45193</v>
       </c>
@@ -12656,14 +12629,14 @@
       </c>
       <c r="H287" s="5"/>
       <c r="I287" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="J287" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="J287" s="4" t="s">
-        <v>399</v>
-      </c>
       <c r="K287" s="5"/>
     </row>
-    <row r="288" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A288" s="6">
         <v>45193</v>
       </c>
@@ -12687,14 +12660,14 @@
       </c>
       <c r="H288" s="5"/>
       <c r="I288" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="J288" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="J288" s="4" t="s">
-        <v>401</v>
-      </c>
       <c r="K288" s="5"/>
     </row>
-    <row r="289" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A289" s="6">
         <v>45193</v>
       </c>
@@ -12718,14 +12691,14 @@
       </c>
       <c r="H289" s="5"/>
       <c r="I289" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="J289" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="J289" s="4" t="s">
-        <v>404</v>
-      </c>
       <c r="K289" s="5"/>
     </row>
-    <row r="290" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A290" s="6">
         <v>45193</v>
       </c>
@@ -12749,10 +12722,10 @@
       </c>
       <c r="H290" s="5"/>
       <c r="I290" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="J290" s="4" t="s">
         <v>405</v>
-      </c>
-      <c r="J290" s="4" t="s">
-        <v>406</v>
       </c>
       <c r="K290" s="5"/>
     </row>
@@ -12780,10 +12753,10 @@
       </c>
       <c r="H291" s="5"/>
       <c r="I291" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="J291" s="4" t="s">
         <v>407</v>
-      </c>
-      <c r="J291" s="4" t="s">
-        <v>408</v>
       </c>
       <c r="K291" s="5"/>
     </row>
@@ -12811,10 +12784,10 @@
       </c>
       <c r="H292" s="5"/>
       <c r="I292" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="J292" s="4" t="s">
         <v>409</v>
-      </c>
-      <c r="J292" s="4" t="s">
-        <v>410</v>
       </c>
       <c r="K292" s="5"/>
     </row>
@@ -12842,10 +12815,10 @@
       </c>
       <c r="H293" s="5"/>
       <c r="I293" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="J293" s="4" t="s">
         <v>414</v>
-      </c>
-      <c r="J293" s="4" t="s">
-        <v>415</v>
       </c>
       <c r="K293" s="5"/>
     </row>
@@ -12873,14 +12846,14 @@
       </c>
       <c r="H294" s="5"/>
       <c r="I294" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="J294" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="J294" s="4" t="s">
-        <v>417</v>
-      </c>
       <c r="K294" s="5"/>
     </row>
-    <row r="295" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A295" s="6">
         <v>45193</v>
       </c>
@@ -12904,14 +12877,14 @@
       </c>
       <c r="H295" s="5"/>
       <c r="I295" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="J295" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="J295" s="4" t="s">
-        <v>419</v>
-      </c>
       <c r="K295" s="5"/>
     </row>
-    <row r="296" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A296" s="6">
         <v>45203</v>
       </c>
@@ -12942,7 +12915,7 @@
       </c>
       <c r="K296" s="5"/>
     </row>
-    <row r="297" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A297" s="6">
         <v>45203</v>
       </c>
@@ -12973,7 +12946,7 @@
       </c>
       <c r="K297" s="5"/>
     </row>
-    <row r="298" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A298" s="6">
         <v>45203</v>
       </c>
@@ -13028,10 +13001,10 @@
       </c>
       <c r="H299" s="5"/>
       <c r="I299" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="J299" s="4" t="s">
         <v>412</v>
-      </c>
-      <c r="J299" s="4" t="s">
-        <v>413</v>
       </c>
       <c r="K299" s="5"/>
     </row>
@@ -13221,7 +13194,7 @@
       </c>
       <c r="K305" s="5"/>
     </row>
-    <row r="306" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A306" s="6">
         <v>45203</v>
       </c>
@@ -13252,7 +13225,7 @@
       </c>
       <c r="K306" s="5"/>
     </row>
-    <row r="307" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A307" s="6">
         <v>45208</v>
       </c>
@@ -13314,7 +13287,7 @@
       </c>
       <c r="K308" s="5"/>
     </row>
-    <row r="309" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A309" s="6">
         <v>45208</v>
       </c>
@@ -13407,7 +13380,7 @@
       </c>
       <c r="K311" s="5"/>
     </row>
-    <row r="312" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A312" s="6">
         <v>45208</v>
       </c>
@@ -13438,7 +13411,7 @@
       </c>
       <c r="K312" s="5"/>
     </row>
-    <row r="313" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A313" s="6">
         <v>45208</v>
       </c>
@@ -13655,7 +13628,7 @@
       </c>
       <c r="K319" s="5"/>
     </row>
-    <row r="320" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A320" s="6">
         <v>45220</v>
       </c>
@@ -13996,7 +13969,7 @@
       </c>
       <c r="K330" s="5"/>
     </row>
-    <row r="331" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A331" s="6">
         <v>45220</v>
       </c>
@@ -14058,7 +14031,7 @@
       </c>
       <c r="K332" s="5"/>
     </row>
-    <row r="333" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A333" s="6">
         <v>45220</v>
       </c>
@@ -14151,7 +14124,7 @@
       </c>
       <c r="K335" s="5"/>
     </row>
-    <row r="336" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A336" s="6">
         <v>45220</v>
       </c>
@@ -14213,7 +14186,7 @@
       </c>
       <c r="K337" s="5"/>
     </row>
-    <row r="338" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A338" s="6">
         <v>45220</v>
       </c>
@@ -14275,7 +14248,7 @@
       </c>
       <c r="K339" s="5"/>
     </row>
-    <row r="340" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A340" s="6">
         <v>45220</v>
       </c>
@@ -14306,7 +14279,7 @@
       </c>
       <c r="K340" s="5"/>
     </row>
-    <row r="341" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A341" s="6">
         <v>45220</v>
       </c>
@@ -14709,7 +14682,7 @@
       </c>
       <c r="K353" s="5"/>
     </row>
-    <row r="354" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A354" s="6">
         <v>45221</v>
       </c>
@@ -14771,7 +14744,7 @@
       </c>
       <c r="K355" s="5"/>
     </row>
-    <row r="356" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A356" s="6">
         <v>45221</v>
       </c>
@@ -14833,7 +14806,7 @@
       </c>
       <c r="K357" s="5"/>
     </row>
-    <row r="358" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A358" s="6">
         <v>45221</v>
       </c>
@@ -14864,7 +14837,7 @@
       </c>
       <c r="K358" s="5"/>
     </row>
-    <row r="359" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A359" s="6">
         <v>45221</v>
       </c>
@@ -14895,7 +14868,7 @@
       </c>
       <c r="K359" s="5"/>
     </row>
-    <row r="360" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A360" s="6">
         <v>45221</v>
       </c>
@@ -14957,7 +14930,7 @@
       </c>
       <c r="K361" s="5"/>
     </row>
-    <row r="362" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A362" s="6">
         <v>45221</v>
       </c>
@@ -14988,7 +14961,7 @@
       </c>
       <c r="K362" s="5"/>
     </row>
-    <row r="363" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A363" s="6">
         <v>45221</v>
       </c>
@@ -15019,7 +14992,7 @@
       </c>
       <c r="K363" s="5"/>
     </row>
-    <row r="364" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A364" s="6">
         <v>45221</v>
       </c>
@@ -15050,7 +15023,7 @@
       </c>
       <c r="K364" s="5"/>
     </row>
-    <row r="365" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A365" s="6">
         <v>45232</v>
       </c>
@@ -15074,14 +15047,14 @@
       </c>
       <c r="H365" s="5"/>
       <c r="I365" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="J365" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="J365" s="4" t="s">
-        <v>377</v>
-      </c>
       <c r="K365" s="5"/>
     </row>
-    <row r="366" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A366" s="6">
         <v>45232</v>
       </c>
@@ -15105,10 +15078,10 @@
       </c>
       <c r="H366" s="5"/>
       <c r="I366" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="J366" s="4" t="s">
         <v>378</v>
-      </c>
-      <c r="J366" s="4" t="s">
-        <v>379</v>
       </c>
       <c r="K366" s="5"/>
     </row>
@@ -15136,10 +15109,10 @@
       </c>
       <c r="H367" s="5"/>
       <c r="I367" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="J367" s="4" t="s">
         <v>380</v>
-      </c>
-      <c r="J367" s="4" t="s">
-        <v>381</v>
       </c>
       <c r="K367" s="5"/>
     </row>
@@ -15167,14 +15140,14 @@
       </c>
       <c r="H368" s="5"/>
       <c r="I368" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="J368" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="J368" s="4" t="s">
-        <v>383</v>
-      </c>
       <c r="K368" s="5"/>
     </row>
-    <row r="369" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A369" s="9">
         <v>45232</v>
       </c>
@@ -15198,14 +15171,14 @@
       </c>
       <c r="H369" s="5"/>
       <c r="I369" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="J369" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="J369" s="4" t="s">
-        <v>385</v>
-      </c>
       <c r="K369" s="5"/>
     </row>
-    <row r="370" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A370" s="6">
         <v>45232</v>
       </c>
@@ -15229,14 +15202,14 @@
       </c>
       <c r="H370" s="5"/>
       <c r="I370" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="J370" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="J370" s="4" t="s">
-        <v>387</v>
-      </c>
       <c r="K370" s="5"/>
     </row>
-    <row r="371" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A371" s="6">
         <v>45232</v>
       </c>
@@ -15260,14 +15233,14 @@
       </c>
       <c r="H371" s="5"/>
       <c r="I371" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="J371" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="J371" s="4" t="s">
-        <v>389</v>
-      </c>
       <c r="K371" s="5"/>
     </row>
-    <row r="372" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A372" s="6">
         <v>45232</v>
       </c>
@@ -15291,10 +15264,10 @@
       </c>
       <c r="H372" s="5"/>
       <c r="I372" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="J372" s="4" t="s">
         <v>390</v>
-      </c>
-      <c r="J372" s="4" t="s">
-        <v>391</v>
       </c>
       <c r="K372" s="5"/>
     </row>
@@ -15322,10 +15295,10 @@
       </c>
       <c r="H373" s="5"/>
       <c r="I373" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="J373" s="4" t="s">
         <v>392</v>
-      </c>
-      <c r="J373" s="4" t="s">
-        <v>393</v>
       </c>
       <c r="K373" s="5"/>
     </row>
@@ -15353,14 +15326,14 @@
       </c>
       <c r="H374" s="5"/>
       <c r="I374" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="J374" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="J374" s="4" t="s">
-        <v>395</v>
-      </c>
       <c r="K374" s="5"/>
     </row>
-    <row r="375" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A375" s="6">
         <v>45232</v>
       </c>
@@ -15384,14 +15357,14 @@
       </c>
       <c r="H375" s="5"/>
       <c r="I375" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="J375" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="J375" s="4" t="s">
-        <v>397</v>
-      </c>
       <c r="K375" s="5"/>
     </row>
-    <row r="376" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A376" s="6">
         <v>45232</v>
       </c>
@@ -15415,14 +15388,14 @@
       </c>
       <c r="H376" s="5"/>
       <c r="I376" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="J376" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="J376" s="4" t="s">
-        <v>399</v>
-      </c>
       <c r="K376" s="5"/>
     </row>
-    <row r="377" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A377" s="6">
         <v>45232</v>
       </c>
@@ -15446,14 +15419,14 @@
       </c>
       <c r="H377" s="5"/>
       <c r="I377" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="J377" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="J377" s="4" t="s">
-        <v>401</v>
-      </c>
       <c r="K377" s="5"/>
     </row>
-    <row r="378" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A378" s="6">
         <v>45232</v>
       </c>
@@ -15477,14 +15450,14 @@
       </c>
       <c r="H378" s="5"/>
       <c r="I378" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="J378" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="J378" s="4" t="s">
-        <v>404</v>
-      </c>
       <c r="K378" s="5"/>
     </row>
-    <row r="379" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A379" s="6">
         <v>45232</v>
       </c>
@@ -15508,10 +15481,10 @@
       </c>
       <c r="H379" s="5"/>
       <c r="I379" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="J379" s="4" t="s">
         <v>405</v>
-      </c>
-      <c r="J379" s="4" t="s">
-        <v>406</v>
       </c>
       <c r="K379" s="5"/>
     </row>
@@ -15539,10 +15512,10 @@
       </c>
       <c r="H380" s="5"/>
       <c r="I380" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="J380" s="4" t="s">
         <v>407</v>
-      </c>
-      <c r="J380" s="4" t="s">
-        <v>408</v>
       </c>
       <c r="K380" s="5"/>
     </row>
@@ -15570,10 +15543,10 @@
       </c>
       <c r="H381" s="5"/>
       <c r="I381" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="J381" s="4" t="s">
         <v>409</v>
-      </c>
-      <c r="J381" s="4" t="s">
-        <v>410</v>
       </c>
       <c r="K381" s="5"/>
     </row>
@@ -15601,10 +15574,10 @@
       </c>
       <c r="H382" s="5"/>
       <c r="I382" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="J382" s="4" t="s">
         <v>412</v>
-      </c>
-      <c r="J382" s="4" t="s">
-        <v>413</v>
       </c>
       <c r="K382" s="5"/>
     </row>
@@ -15632,10 +15605,10 @@
       </c>
       <c r="H383" s="5"/>
       <c r="I383" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="J383" s="4" t="s">
         <v>414</v>
-      </c>
-      <c r="J383" s="4" t="s">
-        <v>415</v>
       </c>
       <c r="K383" s="5"/>
     </row>
@@ -15663,14 +15636,14 @@
       </c>
       <c r="H384" s="5"/>
       <c r="I384" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="J384" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="J384" s="4" t="s">
-        <v>417</v>
-      </c>
       <c r="K384" s="5"/>
     </row>
-    <row r="385" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A385" s="9">
         <v>45232</v>
       </c>
@@ -15694,14 +15667,14 @@
       </c>
       <c r="H385" s="5"/>
       <c r="I385" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="J385" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="J385" s="4" t="s">
-        <v>419</v>
-      </c>
       <c r="K385" s="5"/>
     </row>
-    <row r="386" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A386" s="6">
         <v>45233</v>
       </c>
@@ -15721,18 +15694,18 @@
         <v>1</v>
       </c>
       <c r="G386" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H386" s="5"/>
       <c r="I386" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="J386" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="J386" s="4" t="s">
-        <v>422</v>
-      </c>
       <c r="K386" s="5"/>
     </row>
-    <row r="387" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A387" s="6">
         <v>45233</v>
       </c>
@@ -15752,14 +15725,14 @@
         <v>1</v>
       </c>
       <c r="G387" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H387" s="5"/>
       <c r="I387" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="J387" s="4" t="s">
         <v>424</v>
-      </c>
-      <c r="J387" s="4" t="s">
-        <v>425</v>
       </c>
       <c r="K387" s="5"/>
     </row>
@@ -15787,10 +15760,10 @@
       </c>
       <c r="H388" s="5"/>
       <c r="I388" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="J388" s="4" t="s">
         <v>426</v>
-      </c>
-      <c r="J388" s="4" t="s">
-        <v>427</v>
       </c>
       <c r="K388" s="5"/>
     </row>
@@ -15814,14 +15787,14 @@
         <v>1</v>
       </c>
       <c r="G389" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H389" s="5"/>
       <c r="I389" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="J389" s="4" t="s">
         <v>428</v>
-      </c>
-      <c r="J389" s="4" t="s">
-        <v>429</v>
       </c>
       <c r="K389" s="5"/>
     </row>
@@ -15845,14 +15818,14 @@
         <v>1</v>
       </c>
       <c r="G390" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H390" s="5"/>
       <c r="I390" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="J390" s="4" t="s">
         <v>430</v>
-      </c>
-      <c r="J390" s="4" t="s">
-        <v>431</v>
       </c>
       <c r="K390" s="5"/>
     </row>
@@ -15880,10 +15853,10 @@
       </c>
       <c r="H391" s="5"/>
       <c r="I391" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="J391" s="4" t="s">
         <v>432</v>
-      </c>
-      <c r="J391" s="4" t="s">
-        <v>433</v>
       </c>
       <c r="K391" s="5"/>
     </row>
@@ -15911,10 +15884,10 @@
       </c>
       <c r="H392" s="5"/>
       <c r="I392" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="J392" s="4" t="s">
         <v>434</v>
-      </c>
-      <c r="J392" s="4" t="s">
-        <v>435</v>
       </c>
       <c r="K392" s="5"/>
     </row>
@@ -15942,14 +15915,14 @@
       </c>
       <c r="H393" s="5"/>
       <c r="I393" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="J393" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="J393" s="4" t="s">
-        <v>437</v>
-      </c>
       <c r="K393" s="5"/>
     </row>
-    <row r="394" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A394" s="6">
         <v>45233</v>
       </c>
@@ -15973,14 +15946,14 @@
       </c>
       <c r="H394" s="5"/>
       <c r="I394" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="J394" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="J394" s="4" t="s">
-        <v>439</v>
-      </c>
       <c r="K394" s="5"/>
     </row>
-    <row r="395" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A395" s="6">
         <v>45233</v>
       </c>
@@ -16000,18 +15973,18 @@
         <v>1</v>
       </c>
       <c r="G395" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H395" s="5"/>
       <c r="I395" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="J395" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="J395" s="4" t="s">
-        <v>442</v>
-      </c>
       <c r="K395" s="5"/>
     </row>
-    <row r="396" spans="1:11" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A396" s="6">
         <v>45244</v>
       </c>
@@ -16025,7 +15998,7 @@
         <v>3000</v>
       </c>
       <c r="E396" s="4" t="s">
-        <v>349</v>
+        <v>619</v>
       </c>
       <c r="F396" s="8">
         <v>2</v>
@@ -16035,10 +16008,10 @@
       </c>
       <c r="H396" s="5"/>
       <c r="I396" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="J396" s="4" t="s">
         <v>351</v>
-      </c>
-      <c r="J396" s="4" t="s">
-        <v>352</v>
       </c>
       <c r="K396" s="5"/>
     </row>
@@ -16066,14 +16039,14 @@
       </c>
       <c r="H397" s="5"/>
       <c r="I397" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="J397" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="J397" s="4" t="s">
-        <v>354</v>
-      </c>
       <c r="K397" s="5"/>
     </row>
-    <row r="398" spans="1:11" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A398" s="6">
         <v>45244</v>
       </c>
@@ -16087,7 +16060,7 @@
         <v>500</v>
       </c>
       <c r="E398" s="4" t="s">
-        <v>349</v>
+        <v>619</v>
       </c>
       <c r="F398" s="8">
         <v>2</v>
@@ -16097,14 +16070,14 @@
       </c>
       <c r="H398" s="5"/>
       <c r="I398" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="J398" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="J398" s="4" t="s">
-        <v>357</v>
-      </c>
       <c r="K398" s="5"/>
     </row>
-    <row r="399" spans="1:11" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A399" s="6">
         <v>45244</v>
       </c>
@@ -16118,7 +16091,7 @@
         <v>1000</v>
       </c>
       <c r="E399" s="4" t="s">
-        <v>349</v>
+        <v>619</v>
       </c>
       <c r="F399" s="8">
         <v>2</v>
@@ -16128,10 +16101,10 @@
       </c>
       <c r="H399" s="5"/>
       <c r="I399" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="J399" s="4" t="s">
         <v>358</v>
-      </c>
-      <c r="J399" s="4" t="s">
-        <v>359</v>
       </c>
       <c r="K399" s="5"/>
     </row>
@@ -16159,10 +16132,10 @@
       </c>
       <c r="H400" s="5"/>
       <c r="I400" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="J400" s="4" t="s">
         <v>361</v>
-      </c>
-      <c r="J400" s="4" t="s">
-        <v>362</v>
       </c>
       <c r="K400" s="5"/>
     </row>
@@ -16190,14 +16163,14 @@
       </c>
       <c r="H401" s="5"/>
       <c r="I401" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="J401" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="J401" s="4" t="s">
-        <v>368</v>
-      </c>
       <c r="K401" s="5"/>
     </row>
-    <row r="402" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A402" s="6">
         <v>45244</v>
       </c>
@@ -16221,14 +16194,14 @@
       </c>
       <c r="H402" s="5"/>
       <c r="I402" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="J402" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="J402" s="4" t="s">
-        <v>370</v>
-      </c>
       <c r="K402" s="5"/>
     </row>
-    <row r="403" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A403" s="6">
         <v>45244</v>
       </c>
@@ -16252,14 +16225,14 @@
       </c>
       <c r="H403" s="5"/>
       <c r="I403" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="J403" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="J403" s="4" t="s">
-        <v>372</v>
-      </c>
       <c r="K403" s="5"/>
     </row>
-    <row r="404" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A404" s="6">
         <v>45244</v>
       </c>
@@ -16286,11 +16259,11 @@
         <v>275</v>
       </c>
       <c r="J404" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K404" s="5"/>
     </row>
-    <row r="405" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A405" s="6">
         <v>45244</v>
       </c>
@@ -16314,14 +16287,14 @@
       </c>
       <c r="H405" s="5"/>
       <c r="I405" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="J405" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="J405" s="4" t="s">
-        <v>375</v>
-      </c>
       <c r="K405" s="5"/>
     </row>
-    <row r="406" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A406" s="6">
         <v>45299</v>
       </c>
@@ -16354,7 +16327,7 @@
       </c>
       <c r="K406" s="5"/>
     </row>
-    <row r="407" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A407" s="6">
         <v>45299</v>
       </c>
@@ -16387,7 +16360,7 @@
       </c>
       <c r="K407" s="5"/>
     </row>
-    <row r="408" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A408" s="6">
         <v>45299</v>
       </c>
@@ -16612,7 +16585,7 @@
       </c>
       <c r="K414" s="5"/>
     </row>
-    <row r="415" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:11" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A415" s="6">
         <v>45299</v>
       </c>
@@ -16645,7 +16618,7 @@
       </c>
       <c r="K415" s="5"/>
     </row>
-    <row r="416" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A416" s="6">
         <v>45304</v>
       </c>
@@ -16806,7 +16779,7 @@
       </c>
       <c r="K420" s="5"/>
     </row>
-    <row r="421" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A421" s="6">
         <v>45304</v>
       </c>
@@ -16837,7 +16810,7 @@
       </c>
       <c r="K421" s="5"/>
     </row>
-    <row r="422" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A422" s="6">
         <v>45304</v>
       </c>
@@ -16868,7 +16841,7 @@
       </c>
       <c r="K422" s="5"/>
     </row>
-    <row r="423" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A423" s="6">
         <v>45304</v>
       </c>
@@ -16901,7 +16874,7 @@
       </c>
       <c r="K423" s="5"/>
     </row>
-    <row r="424" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A424" s="6">
         <v>45305</v>
       </c>
@@ -17295,7 +17268,7 @@
       </c>
       <c r="K435" s="5"/>
     </row>
-    <row r="436" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A436" s="6">
         <v>45319</v>
       </c>
@@ -17326,7 +17299,7 @@
       </c>
       <c r="K436" s="5"/>
     </row>
-    <row r="437" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A437" s="6">
         <v>45319</v>
       </c>
@@ -17388,7 +17361,7 @@
       </c>
       <c r="K438" s="5"/>
     </row>
-    <row r="439" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A439" s="6">
         <v>45319</v>
       </c>
@@ -17454,7 +17427,7 @@
       </c>
       <c r="K440" s="5"/>
     </row>
-    <row r="441" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A441" s="6">
         <v>45337</v>
       </c>
@@ -17520,7 +17493,7 @@
       </c>
       <c r="K442" s="5"/>
     </row>
-    <row r="443" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A443" s="6">
         <v>45337</v>
       </c>
@@ -17553,7 +17526,7 @@
       </c>
       <c r="K443" s="5"/>
     </row>
-    <row r="444" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A444" s="6">
         <v>45337</v>
       </c>
@@ -17586,7 +17559,7 @@
       </c>
       <c r="K444" s="5"/>
     </row>
-    <row r="445" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A445" s="6">
         <v>45337</v>
       </c>
@@ -17619,7 +17592,7 @@
       </c>
       <c r="K445" s="5"/>
     </row>
-    <row r="446" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A446" s="6">
         <v>45337</v>
       </c>
@@ -17844,7 +17817,7 @@
       </c>
       <c r="K452" s="5"/>
     </row>
-    <row r="453" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A453" s="6">
         <v>45338</v>
       </c>
@@ -17877,7 +17850,7 @@
       </c>
       <c r="K453" s="5"/>
     </row>
-    <row r="454" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A454" s="6">
         <v>45338</v>
       </c>
@@ -17910,7 +17883,7 @@
       </c>
       <c r="K454" s="5"/>
     </row>
-    <row r="455" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A455" s="6">
         <v>45338</v>
       </c>
@@ -17943,7 +17916,7 @@
       </c>
       <c r="K455" s="5"/>
     </row>
-    <row r="456" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A456" s="6">
         <v>45338</v>
       </c>
@@ -17976,7 +17949,7 @@
       </c>
       <c r="K456" s="5"/>
     </row>
-    <row r="457" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A457" s="6">
         <v>45338</v>
       </c>
@@ -18009,7 +17982,7 @@
       </c>
       <c r="K457" s="5"/>
     </row>
-    <row r="458" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A458" s="6">
         <v>45338</v>
       </c>
@@ -18073,7 +18046,7 @@
       </c>
       <c r="K459" s="5"/>
     </row>
-    <row r="460" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A460" s="6">
         <v>45338</v>
       </c>
@@ -18135,7 +18108,7 @@
       </c>
       <c r="K461" s="5"/>
     </row>
-    <row r="462" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A462" s="6">
         <v>45338</v>
       </c>
@@ -18321,7 +18294,7 @@
       </c>
       <c r="K467" s="5"/>
     </row>
-    <row r="468" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A468" s="6">
         <v>45344</v>
       </c>
@@ -18352,7 +18325,7 @@
       </c>
       <c r="K468" s="5"/>
     </row>
-    <row r="469" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A469" s="6">
         <v>45344</v>
       </c>
@@ -18383,7 +18356,7 @@
       </c>
       <c r="K469" s="5"/>
     </row>
-    <row r="470" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A470" s="6">
         <v>45344</v>
       </c>
@@ -18416,7 +18389,7 @@
       </c>
       <c r="K470" s="5"/>
     </row>
-    <row r="471" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A471" s="6">
         <v>45344</v>
       </c>
@@ -18447,7 +18420,7 @@
       </c>
       <c r="K471" s="5"/>
     </row>
-    <row r="472" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A472" s="6">
         <v>45345</v>
       </c>
@@ -18509,7 +18482,7 @@
       </c>
       <c r="K473" s="5"/>
     </row>
-    <row r="474" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A474" s="6">
         <v>45345</v>
       </c>
@@ -18602,7 +18575,7 @@
       </c>
       <c r="K476" s="5"/>
     </row>
-    <row r="477" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A477" s="6">
         <v>45345</v>
       </c>
@@ -18633,7 +18606,7 @@
       </c>
       <c r="K477" s="5"/>
     </row>
-    <row r="478" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A478" s="6">
         <v>45345</v>
       </c>
@@ -18825,7 +18798,7 @@
       </c>
       <c r="K483" s="5"/>
     </row>
-    <row r="484" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A484" s="6">
         <v>45354</v>
       </c>
@@ -19186,7 +19159,7 @@
       </c>
       <c r="K494" s="5"/>
     </row>
-    <row r="495" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A495" s="6">
         <v>45354</v>
       </c>
@@ -19252,7 +19225,7 @@
       </c>
       <c r="K496" s="5"/>
     </row>
-    <row r="497" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A497" s="6">
         <v>45354</v>
       </c>
@@ -19351,7 +19324,7 @@
       </c>
       <c r="K499" s="5"/>
     </row>
-    <row r="500" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A500" s="6">
         <v>45354</v>
       </c>
@@ -19415,7 +19388,7 @@
       </c>
       <c r="K501" s="5"/>
     </row>
-    <row r="502" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A502" s="6">
         <v>45354</v>
       </c>
@@ -19481,7 +19454,7 @@
       </c>
       <c r="K503" s="5"/>
     </row>
-    <row r="504" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A504" s="6">
         <v>45354</v>
       </c>
@@ -19512,7 +19485,7 @@
       </c>
       <c r="K504" s="5"/>
     </row>
-    <row r="505" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A505" s="6">
         <v>45354</v>
       </c>
@@ -19941,7 +19914,7 @@
       </c>
       <c r="K517" s="5"/>
     </row>
-    <row r="518" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="518" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A518" s="6">
         <v>45357</v>
       </c>
@@ -20007,7 +19980,7 @@
       </c>
       <c r="K519" s="5"/>
     </row>
-    <row r="520" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="520" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A520" s="6">
         <v>45357</v>
       </c>
@@ -20071,7 +20044,7 @@
       </c>
       <c r="K521" s="5"/>
     </row>
-    <row r="522" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="522" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A522" s="6">
         <v>45357</v>
       </c>
@@ -20102,7 +20075,7 @@
       </c>
       <c r="K522" s="5"/>
     </row>
-    <row r="523" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="523" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A523" s="6">
         <v>45357</v>
       </c>
@@ -20133,7 +20106,7 @@
       </c>
       <c r="K523" s="5"/>
     </row>
-    <row r="524" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="524" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A524" s="6">
         <v>45357</v>
       </c>
@@ -20195,7 +20168,7 @@
       </c>
       <c r="K525" s="5"/>
     </row>
-    <row r="526" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="526" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A526" s="6">
         <v>45357</v>
       </c>
@@ -20228,7 +20201,7 @@
       </c>
       <c r="K526" s="5"/>
     </row>
-    <row r="527" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="527" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A527" s="6">
         <v>45357</v>
       </c>
@@ -20261,7 +20234,7 @@
       </c>
       <c r="K527" s="5"/>
     </row>
-    <row r="528" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="528" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A528" s="6">
         <v>45357</v>
       </c>
@@ -20393,7 +20366,7 @@
       </c>
       <c r="K531" s="5"/>
     </row>
-    <row r="532" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="532" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A532" s="6">
         <v>45365</v>
       </c>
@@ -20554,7 +20527,7 @@
       </c>
       <c r="K536" s="5"/>
     </row>
-    <row r="537" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="537" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A537" s="6">
         <v>45365</v>
       </c>
@@ -20587,7 +20560,7 @@
       </c>
       <c r="K537" s="5"/>
     </row>
-    <row r="538" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="538" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A538" s="6">
         <v>45365</v>
       </c>
@@ -20618,7 +20591,7 @@
       </c>
       <c r="K538" s="5"/>
     </row>
-    <row r="539" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="539" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A539" s="6">
         <v>45365</v>
       </c>
@@ -20649,7 +20622,7 @@
       </c>
       <c r="K539" s="5"/>
     </row>
-    <row r="540" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="540" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A540" s="6">
         <v>45365</v>
       </c>
@@ -20736,13 +20709,13 @@
         <v>273</v>
       </c>
       <c r="H542" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="I542" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="I542" s="4" t="s">
+      <c r="J542" s="4" t="s">
         <v>539</v>
-      </c>
-      <c r="J542" s="4" t="s">
-        <v>540</v>
       </c>
       <c r="K542" s="5"/>
     </row>
@@ -20770,10 +20743,10 @@
       </c>
       <c r="H543" s="5"/>
       <c r="I543" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="J543" s="4" t="s">
         <v>541</v>
-      </c>
-      <c r="J543" s="4" t="s">
-        <v>542</v>
       </c>
       <c r="K543" s="5"/>
     </row>
@@ -20803,10 +20776,10 @@
         <v>110</v>
       </c>
       <c r="I544" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="J544" s="4" t="s">
         <v>543</v>
-      </c>
-      <c r="J544" s="4" t="s">
-        <v>544</v>
       </c>
       <c r="K544" s="5"/>
     </row>
@@ -20833,13 +20806,13 @@
         <v>273</v>
       </c>
       <c r="H545" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="I545" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="I545" s="4" t="s">
+      <c r="J545" s="4" t="s">
         <v>546</v>
-      </c>
-      <c r="J545" s="4" t="s">
-        <v>547</v>
       </c>
       <c r="K545" s="5"/>
     </row>
@@ -20857,7 +20830,7 @@
         <v>300</v>
       </c>
       <c r="E546" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F546" s="8">
         <v>3</v>
@@ -20866,13 +20839,13 @@
         <v>273</v>
       </c>
       <c r="H546" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="I546" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="I546" s="4" t="s">
+      <c r="J546" s="4" t="s">
         <v>549</v>
-      </c>
-      <c r="J546" s="4" t="s">
-        <v>550</v>
       </c>
       <c r="K546" s="5"/>
     </row>
@@ -20890,7 +20863,7 @@
         <v>20</v>
       </c>
       <c r="E547" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F547" s="8">
         <v>5</v>
@@ -20899,13 +20872,13 @@
         <v>273</v>
       </c>
       <c r="H547" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I547" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="J547" s="4" t="s">
         <v>551</v>
-      </c>
-      <c r="J547" s="4" t="s">
-        <v>552</v>
       </c>
       <c r="K547" s="5"/>
     </row>
@@ -20923,7 +20896,7 @@
         <v>80</v>
       </c>
       <c r="E548" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F548" s="8">
         <v>10</v>
@@ -20932,17 +20905,17 @@
         <v>273</v>
       </c>
       <c r="H548" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="I548" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="I548" s="4" t="s">
+      <c r="J548" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="J548" s="4" t="s">
-        <v>555</v>
-      </c>
       <c r="K548" s="5"/>
     </row>
-    <row r="549" spans="1:11" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="549" spans="1:11" ht="56" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A549" s="6">
         <v>45376</v>
       </c>
@@ -20965,13 +20938,13 @@
         <v>117</v>
       </c>
       <c r="H549" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="I549" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="I549" s="4" t="s">
+      <c r="J549" s="4" t="s">
         <v>557</v>
-      </c>
-      <c r="J549" s="4" t="s">
-        <v>558</v>
       </c>
       <c r="K549" s="5"/>
     </row>
@@ -21002,11 +20975,11 @@
         <v>-39956</v>
       </c>
       <c r="J550" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="K550" s="5"/>
     </row>
-    <row r="551" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="551" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A551" s="6">
         <v>45376</v>
       </c>
@@ -21032,14 +21005,14 @@
         <v>107</v>
       </c>
       <c r="I551" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="J551" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="J551" s="4" t="s">
-        <v>561</v>
-      </c>
       <c r="K551" s="5"/>
     </row>
-    <row r="552" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="552" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A552" s="6">
         <v>45376</v>
       </c>
@@ -21059,18 +21032,18 @@
         <v>1</v>
       </c>
       <c r="G552" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H552" s="5"/>
       <c r="I552" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="J552" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="K552" s="5"/>
     </row>
-    <row r="553" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="553" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A553" s="6">
         <v>45376</v>
       </c>
@@ -21090,14 +21063,14 @@
         <v>1</v>
       </c>
       <c r="G553" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H553" s="5"/>
       <c r="I553" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="J553" s="4" t="s">
         <v>564</v>
-      </c>
-      <c r="J553" s="4" t="s">
-        <v>565</v>
       </c>
       <c r="K553" s="5"/>
     </row>
@@ -21125,14 +21098,14 @@
       </c>
       <c r="H554" s="5"/>
       <c r="I554" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="J554" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="J554" s="4" t="s">
-        <v>567</v>
-      </c>
       <c r="K554" s="5"/>
     </row>
-    <row r="555" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="555" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A555" s="6">
         <v>45376</v>
       </c>
@@ -21152,16 +21125,16 @@
         <v>1</v>
       </c>
       <c r="G555" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H555" s="4" t="s">
         <v>107</v>
       </c>
       <c r="I555" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="J555" s="4" t="s">
         <v>568</v>
-      </c>
-      <c r="J555" s="4" t="s">
-        <v>569</v>
       </c>
       <c r="K555" s="5"/>
     </row>
@@ -21189,14 +21162,14 @@
       </c>
       <c r="H556" s="5"/>
       <c r="I556" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="J556" s="4" t="s">
         <v>570</v>
       </c>
-      <c r="J556" s="4" t="s">
-        <v>571</v>
-      </c>
       <c r="K556" s="5"/>
     </row>
-    <row r="557" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="557" spans="1:11" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A557" s="6">
         <v>45376</v>
       </c>
@@ -21216,20 +21189,20 @@
         <v>1</v>
       </c>
       <c r="G557" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="H557" s="4" t="s">
         <v>572</v>
-      </c>
-      <c r="H557" s="4" t="s">
-        <v>573</v>
       </c>
       <c r="I557" s="4" t="s">
         <v>315</v>
       </c>
       <c r="J557" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K557" s="5"/>
     </row>
-    <row r="558" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="558" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A558" s="6">
         <v>45376</v>
       </c>
@@ -21249,14 +21222,14 @@
         <v>1</v>
       </c>
       <c r="G558" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H558" s="5"/>
       <c r="I558" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="J558" s="4" t="s">
         <v>575</v>
-      </c>
-      <c r="J558" s="4" t="s">
-        <v>576</v>
       </c>
       <c r="K558" s="5"/>
     </row>
@@ -21280,20 +21253,20 @@
         <v>2</v>
       </c>
       <c r="G559" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H559" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="I559" s="4" t="s">
         <v>577</v>
       </c>
-      <c r="I559" s="4" t="s">
+      <c r="J559" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="J559" s="4" t="s">
-        <v>579</v>
-      </c>
       <c r="K559" s="5"/>
     </row>
-    <row r="560" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="560" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A560" s="6">
         <v>45376</v>
       </c>
@@ -21313,14 +21286,14 @@
         <v>1</v>
       </c>
       <c r="G560" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H560" s="5"/>
       <c r="I560" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="J560" s="4" t="s">
         <v>580</v>
-      </c>
-      <c r="J560" s="4" t="s">
-        <v>581</v>
       </c>
       <c r="K560" s="5"/>
     </row>
@@ -21351,11 +21324,11 @@
         <v>48</v>
       </c>
       <c r="J561" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="K561" s="5"/>
     </row>
-    <row r="562" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="562" spans="1:11" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A562" s="6">
         <v>45393</v>
       </c>
@@ -21378,17 +21351,17 @@
         <v>22</v>
       </c>
       <c r="H562" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="I562" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="I562" s="4" t="s">
+      <c r="J562" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="J562" s="4" t="s">
-        <v>585</v>
-      </c>
       <c r="K562" s="5"/>
     </row>
-    <row r="563" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="563" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A563" s="6">
         <v>45393</v>
       </c>
@@ -21411,13 +21384,13 @@
         <v>15</v>
       </c>
       <c r="H563" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="I563" s="4" t="s">
         <v>586</v>
       </c>
-      <c r="I563" s="4" t="s">
+      <c r="J563" s="4" t="s">
         <v>587</v>
-      </c>
-      <c r="J563" s="4" t="s">
-        <v>588</v>
       </c>
       <c r="K563" s="5"/>
     </row>
@@ -21444,13 +21417,13 @@
         <v>15</v>
       </c>
       <c r="H564" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="I564" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="I564" s="4" t="s">
+      <c r="J564" s="4" t="s">
         <v>590</v>
-      </c>
-      <c r="J564" s="4" t="s">
-        <v>591</v>
       </c>
       <c r="K564" s="5"/>
     </row>
@@ -21474,16 +21447,16 @@
         <v>8</v>
       </c>
       <c r="G565" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="H565" s="4" t="s">
         <v>592</v>
       </c>
-      <c r="H565" s="4" t="s">
+      <c r="I565" s="4" t="s">
         <v>593</v>
       </c>
-      <c r="I565" s="4" t="s">
+      <c r="J565" s="4" t="s">
         <v>594</v>
-      </c>
-      <c r="J565" s="4" t="s">
-        <v>595</v>
       </c>
       <c r="K565" s="5"/>
     </row>
@@ -21510,13 +21483,13 @@
         <v>15</v>
       </c>
       <c r="H566" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I566" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="J566" s="4" t="s">
         <v>596</v>
-      </c>
-      <c r="J566" s="4" t="s">
-        <v>597</v>
       </c>
       <c r="K566" s="5"/>
     </row>
@@ -21543,13 +21516,13 @@
         <v>15</v>
       </c>
       <c r="H567" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I567" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="J567" s="4" t="s">
         <v>598</v>
-      </c>
-      <c r="J567" s="4" t="s">
-        <v>599</v>
       </c>
       <c r="K567" s="5"/>
     </row>
@@ -21579,10 +21552,10 @@
         <v>75</v>
       </c>
       <c r="I568" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="J568" s="4" t="s">
         <v>600</v>
-      </c>
-      <c r="J568" s="4" t="s">
-        <v>601</v>
       </c>
       <c r="K568" s="5"/>
     </row>
@@ -21610,10 +21583,10 @@
       </c>
       <c r="H569" s="5"/>
       <c r="I569" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="J569" s="4" t="s">
         <v>602</v>
-      </c>
-      <c r="J569" s="4" t="s">
-        <v>603</v>
       </c>
       <c r="K569" s="5"/>
     </row>
@@ -21641,14 +21614,14 @@
       </c>
       <c r="H570" s="5"/>
       <c r="I570" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="J570" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="J570" s="4" t="s">
-        <v>605</v>
-      </c>
       <c r="K570" s="5"/>
     </row>
-    <row r="571" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="571" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A571" s="6">
         <v>45393</v>
       </c>
@@ -21672,14 +21645,14 @@
       </c>
       <c r="H571" s="5"/>
       <c r="I571" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="J571" s="4" t="s">
         <v>606</v>
       </c>
-      <c r="J571" s="4" t="s">
-        <v>607</v>
-      </c>
       <c r="K571" s="5"/>
     </row>
-    <row r="572" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="572" spans="1:11" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A572" s="6">
         <v>45393</v>
       </c>
@@ -21699,20 +21672,20 @@
         <v>1</v>
       </c>
       <c r="G572" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H572" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="I572" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="J572" s="4" t="s">
         <v>608</v>
       </c>
-      <c r="I572" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="J572" s="4" t="s">
-        <v>609</v>
-      </c>
       <c r="K572" s="5"/>
     </row>
-    <row r="573" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="573" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A573" s="6">
         <v>45393</v>
       </c>
@@ -21736,10 +21709,10 @@
       </c>
       <c r="H573" s="5"/>
       <c r="I573" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="J573" s="4" t="s">
         <v>610</v>
-      </c>
-      <c r="J573" s="4" t="s">
-        <v>611</v>
       </c>
       <c r="K573" s="5"/>
     </row>
@@ -21767,14 +21740,14 @@
       </c>
       <c r="H574" s="5"/>
       <c r="I574" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="J574" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="J574" s="4" t="s">
-        <v>613</v>
-      </c>
       <c r="K574" s="5"/>
     </row>
-    <row r="575" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="575" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A575" s="6">
         <v>45393</v>
       </c>
@@ -21800,14 +21773,14 @@
         <v>250</v>
       </c>
       <c r="I575" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="J575" s="4" t="s">
         <v>614</v>
       </c>
-      <c r="J575" s="4" t="s">
-        <v>615</v>
-      </c>
       <c r="K575" s="5"/>
     </row>
-    <row r="576" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="576" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A576" s="6">
         <v>45393</v>
       </c>
@@ -21831,10 +21804,10 @@
       </c>
       <c r="H576" s="5"/>
       <c r="I576" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="J576" s="4" t="s">
         <v>616</v>
-      </c>
-      <c r="J576" s="4" t="s">
-        <v>617</v>
       </c>
       <c r="K576" s="5"/>
     </row>
@@ -21842,9 +21815,7 @@
   <autoFilter ref="E1:E576" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Chungungo  (Lontra felina)"/>
-        <filter val="Chungungo (Contra felina)"/>
-        <filter val="Chungungo (Lontra felina)"/>
+        <filter val="Ballena azul (Balaenoptera musculus)"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/data/datos_avistamientos.xlsx
+++ b/data/datos_avistamientos.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/59011/Downloads/avistamiento_ballenas/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50ED3A77-6918-BC4C-9FC8-A9358414815A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFB5468-A884-6F46-B7BB-37F390E29929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="-8000" windowWidth="25600" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-51200" yWindow="-4680" windowWidth="25600" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Hoja 1'!$G$1:$G$576</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Hoja 1'!$E$1:$E$576</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2532" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2532" uniqueCount="609">
   <si>
     <t>Fecha</t>
   </si>
@@ -1562,36 +1562,6 @@
     <t>-73.66018</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>Delfín austral (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>Lagenorhynchus australis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-  </si>
-  <si>
     <t>-39.952559</t>
   </si>
   <si>
@@ -1992,9 +1962,6 @@
   </si>
   <si>
     <t>-73.60738600000001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forrajeo </t>
   </si>
   <si>
     <t>-73.607545</t>
@@ -3474,7 +3441,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N43" sqref="N43"/>
+      <selection pane="topRight" activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3509,7 +3476,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>5</v>
@@ -3818,7 +3785,7 @@
       </c>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="1:11" ht="56" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="56" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>44932</v>
       </c>
@@ -3851,7 +3818,7 @@
       </c>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:11" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>44932</v>
       </c>
@@ -4076,10 +4043,10 @@
       </c>
       <c r="K18" s="5"/>
       <c r="O18" s="11" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>44937</v>
       </c>
@@ -4271,7 +4238,7 @@
       </c>
       <c r="K24" s="5"/>
     </row>
-    <row r="25" spans="1:15" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:15" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
         <v>44939</v>
       </c>
@@ -4304,7 +4271,7 @@
       </c>
       <c r="K25" s="5"/>
     </row>
-    <row r="26" spans="1:15" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:15" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
         <v>44939</v>
       </c>
@@ -4370,7 +4337,7 @@
       </c>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="1:15" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:15" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
         <v>44939</v>
       </c>
@@ -4436,7 +4403,7 @@
       </c>
       <c r="K29" s="5"/>
     </row>
-    <row r="30" spans="1:15" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:15" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6">
         <v>44939</v>
       </c>
@@ -4661,7 +4628,7 @@
       </c>
       <c r="K36" s="5"/>
     </row>
-    <row r="37" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="6">
         <v>44952</v>
       </c>
@@ -4793,7 +4760,7 @@
       </c>
       <c r="K40" s="5"/>
     </row>
-    <row r="41" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="6">
         <v>44978</v>
       </c>
@@ -4859,7 +4826,7 @@
       </c>
       <c r="K42" s="5"/>
     </row>
-    <row r="43" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="6">
         <v>44978</v>
       </c>
@@ -4892,7 +4859,7 @@
       </c>
       <c r="K43" s="5"/>
     </row>
-    <row r="44" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="6">
         <v>44978</v>
       </c>
@@ -5117,7 +5084,7 @@
       </c>
       <c r="K50" s="5"/>
     </row>
-    <row r="51" spans="1:11" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="6">
         <v>44979</v>
       </c>
@@ -5150,7 +5117,7 @@
       </c>
       <c r="K51" s="5"/>
     </row>
-    <row r="52" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="6">
         <v>44979</v>
       </c>
@@ -5282,7 +5249,7 @@
       </c>
       <c r="K55" s="5"/>
     </row>
-    <row r="56" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6">
         <v>44979</v>
       </c>
@@ -5629,7 +5596,7 @@
       </c>
       <c r="K66" s="5"/>
     </row>
-    <row r="67" spans="1:11" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="6">
         <v>44984</v>
       </c>
@@ -5722,7 +5689,7 @@
       </c>
       <c r="K69" s="5"/>
     </row>
-    <row r="70" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="6">
         <v>44984</v>
       </c>
@@ -5879,7 +5846,7 @@
       </c>
       <c r="K74" s="5"/>
     </row>
-    <row r="75" spans="1:11" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="6">
         <v>44985</v>
       </c>
@@ -6034,7 +6001,7 @@
       </c>
       <c r="K79" s="5"/>
     </row>
-    <row r="80" spans="1:11" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6">
         <v>44985</v>
       </c>
@@ -6686,7 +6653,7 @@
       </c>
       <c r="K99" s="5"/>
     </row>
-    <row r="100" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="6">
         <v>45007</v>
       </c>
@@ -6849,7 +6816,7 @@
       </c>
       <c r="K104" s="5"/>
     </row>
-    <row r="105" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="6">
         <v>45007</v>
       </c>
@@ -6946,7 +6913,7 @@
       </c>
       <c r="K107" s="5"/>
     </row>
-    <row r="108" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="6">
         <v>45007</v>
       </c>
@@ -7408,7 +7375,7 @@
       </c>
       <c r="K121" s="5"/>
     </row>
-    <row r="122" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="6">
         <v>45009</v>
       </c>
@@ -7662,7 +7629,7 @@
       </c>
       <c r="K129" s="5"/>
     </row>
-    <row r="130" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="6">
         <v>45009</v>
       </c>
@@ -7695,7 +7662,7 @@
       </c>
       <c r="K130" s="5"/>
     </row>
-    <row r="131" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="6">
         <v>45009</v>
       </c>
@@ -7728,7 +7695,7 @@
       </c>
       <c r="K131" s="5"/>
     </row>
-    <row r="132" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="6">
         <v>45009</v>
       </c>
@@ -7990,7 +7957,7 @@
       </c>
       <c r="K139" s="5"/>
     </row>
-    <row r="140" spans="1:11" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="6">
         <v>45015</v>
       </c>
@@ -8054,7 +8021,7 @@
       </c>
       <c r="K141" s="5"/>
     </row>
-    <row r="142" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="6">
         <v>45015</v>
       </c>
@@ -8227,7 +8194,7 @@
         <v>3000</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="F147" s="8">
         <v>2</v>
@@ -8291,7 +8258,7 @@
         <v>500</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="F149" s="8">
         <v>2</v>
@@ -8324,7 +8291,7 @@
         <v>1000</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="F150" s="8">
         <v>2</v>
@@ -8442,7 +8409,7 @@
       </c>
       <c r="K153" s="5"/>
     </row>
-    <row r="154" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="6">
         <v>45019</v>
       </c>
@@ -8506,7 +8473,7 @@
       </c>
       <c r="K155" s="5"/>
     </row>
-    <row r="156" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="6">
         <v>45019</v>
       </c>
@@ -8539,7 +8506,7 @@
       </c>
       <c r="K156" s="5"/>
     </row>
-    <row r="157" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="6">
         <v>45019</v>
       </c>
@@ -8572,7 +8539,7 @@
       </c>
       <c r="K157" s="5"/>
     </row>
-    <row r="158" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="6">
         <v>45036</v>
       </c>
@@ -8987,7 +8954,7 @@
       </c>
       <c r="K170" s="5"/>
     </row>
-    <row r="171" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="6">
         <v>45036</v>
       </c>
@@ -9394,7 +9361,7 @@
       </c>
       <c r="K183" s="5"/>
     </row>
-    <row r="184" spans="1:11" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="6">
         <v>45075</v>
       </c>
@@ -9425,7 +9392,7 @@
       </c>
       <c r="K184" s="5"/>
     </row>
-    <row r="185" spans="1:11" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="6">
         <v>45075</v>
       </c>
@@ -9456,7 +9423,7 @@
       </c>
       <c r="K185" s="5"/>
     </row>
-    <row r="186" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="6">
         <v>45075</v>
       </c>
@@ -9489,7 +9456,7 @@
       </c>
       <c r="K186" s="5"/>
     </row>
-    <row r="187" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="6">
         <v>45075</v>
       </c>
@@ -9553,7 +9520,7 @@
       </c>
       <c r="K188" s="5"/>
     </row>
-    <row r="189" spans="1:11" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="6">
         <v>45096</v>
       </c>
@@ -9584,7 +9551,7 @@
       </c>
       <c r="K189" s="5"/>
     </row>
-    <row r="190" spans="1:11" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="6">
         <v>45117</v>
       </c>
@@ -9598,7 +9565,7 @@
         <v>100</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>436</v>
+        <v>39</v>
       </c>
       <c r="F190" s="8">
         <v>35</v>
@@ -9608,10 +9575,10 @@
       </c>
       <c r="H190" s="5"/>
       <c r="I190" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="J190" s="4" t="s">
         <v>437</v>
-      </c>
-      <c r="J190" s="4" t="s">
-        <v>438</v>
       </c>
       <c r="K190" s="5"/>
     </row>
@@ -9629,7 +9596,7 @@
         <v>200</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F191" s="8">
         <v>1</v>
@@ -9639,14 +9606,14 @@
       </c>
       <c r="H191" s="5"/>
       <c r="I191" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="J191" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="J191" s="4" t="s">
-        <v>441</v>
-      </c>
       <c r="K191" s="5"/>
     </row>
-    <row r="192" spans="1:11" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="6">
         <v>45117</v>
       </c>
@@ -9660,7 +9627,7 @@
         <v>200</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>436</v>
+        <v>39</v>
       </c>
       <c r="F192" s="8">
         <v>10</v>
@@ -9670,14 +9637,14 @@
       </c>
       <c r="H192" s="5"/>
       <c r="I192" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="J192" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="J192" s="4" t="s">
-        <v>443</v>
-      </c>
       <c r="K192" s="5"/>
     </row>
-    <row r="193" spans="1:11" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="6">
         <v>45117</v>
       </c>
@@ -9691,7 +9658,7 @@
         <v>100</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>436</v>
+        <v>39</v>
       </c>
       <c r="F193" s="8">
         <v>16</v>
@@ -9701,14 +9668,14 @@
       </c>
       <c r="H193" s="5"/>
       <c r="I193" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="J193" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="J193" s="4" t="s">
-        <v>445</v>
-      </c>
       <c r="K193" s="5"/>
     </row>
-    <row r="194" spans="1:11" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="6">
         <v>45117</v>
       </c>
@@ -9722,7 +9689,7 @@
         <v>300</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>436</v>
+        <v>39</v>
       </c>
       <c r="F194" s="8">
         <v>5</v>
@@ -9732,14 +9699,14 @@
       </c>
       <c r="H194" s="5"/>
       <c r="I194" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="J194" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="J194" s="4" t="s">
-        <v>447</v>
-      </c>
       <c r="K194" s="5"/>
     </row>
-    <row r="195" spans="1:11" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="6">
         <v>45117</v>
       </c>
@@ -9753,7 +9720,7 @@
         <v>50</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>436</v>
+        <v>39</v>
       </c>
       <c r="F195" s="8">
         <v>4</v>
@@ -9763,14 +9730,14 @@
       </c>
       <c r="H195" s="5"/>
       <c r="I195" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="J195" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="J195" s="4" t="s">
-        <v>449</v>
-      </c>
       <c r="K195" s="5"/>
     </row>
-    <row r="196" spans="1:11" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="6">
         <v>45117</v>
       </c>
@@ -9784,7 +9751,7 @@
         <v>100</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>436</v>
+        <v>39</v>
       </c>
       <c r="F196" s="8">
         <v>5</v>
@@ -9794,14 +9761,14 @@
       </c>
       <c r="H196" s="5"/>
       <c r="I196" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="J196" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="J196" s="4" t="s">
-        <v>451</v>
-      </c>
       <c r="K196" s="5"/>
     </row>
-    <row r="197" spans="1:11" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="6">
         <v>45117</v>
       </c>
@@ -9815,7 +9782,7 @@
         <v>100</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>436</v>
+        <v>39</v>
       </c>
       <c r="F197" s="8">
         <v>7</v>
@@ -9825,10 +9792,10 @@
       </c>
       <c r="H197" s="5"/>
       <c r="I197" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="J197" s="4" t="s">
         <v>452</v>
-      </c>
-      <c r="J197" s="4" t="s">
-        <v>453</v>
       </c>
       <c r="K197" s="5"/>
     </row>
@@ -9856,10 +9823,10 @@
       </c>
       <c r="H198" s="5"/>
       <c r="I198" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="J198" s="4" t="s">
         <v>454</v>
-      </c>
-      <c r="J198" s="4" t="s">
-        <v>455</v>
       </c>
       <c r="K198" s="5"/>
     </row>
@@ -9887,10 +9854,10 @@
       </c>
       <c r="H199" s="5"/>
       <c r="I199" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="J199" s="4" t="s">
         <v>456</v>
-      </c>
-      <c r="J199" s="4" t="s">
-        <v>457</v>
       </c>
       <c r="K199" s="5"/>
     </row>
@@ -9918,14 +9885,14 @@
       </c>
       <c r="H200" s="5"/>
       <c r="I200" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="J200" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="J200" s="4" t="s">
-        <v>459</v>
-      </c>
       <c r="K200" s="5"/>
     </row>
-    <row r="201" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="6">
         <v>45117</v>
       </c>
@@ -9949,10 +9916,10 @@
       </c>
       <c r="H201" s="5"/>
       <c r="I201" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="J201" s="4" t="s">
         <v>460</v>
-      </c>
-      <c r="J201" s="4" t="s">
-        <v>461</v>
       </c>
       <c r="K201" s="5"/>
     </row>
@@ -9980,10 +9947,10 @@
       </c>
       <c r="H202" s="5"/>
       <c r="I202" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="J202" s="4" t="s">
         <v>462</v>
-      </c>
-      <c r="J202" s="4" t="s">
-        <v>463</v>
       </c>
       <c r="K202" s="5"/>
     </row>
@@ -10011,10 +9978,10 @@
       </c>
       <c r="H203" s="5"/>
       <c r="I203" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="J203" s="4" t="s">
         <v>464</v>
-      </c>
-      <c r="J203" s="4" t="s">
-        <v>465</v>
       </c>
       <c r="K203" s="5"/>
     </row>
@@ -10042,10 +10009,10 @@
       </c>
       <c r="H204" s="5"/>
       <c r="I204" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="J204" s="4" t="s">
         <v>466</v>
-      </c>
-      <c r="J204" s="4" t="s">
-        <v>467</v>
       </c>
       <c r="K204" s="5"/>
     </row>
@@ -10073,10 +10040,10 @@
       </c>
       <c r="H205" s="5"/>
       <c r="I205" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="J205" s="4" t="s">
         <v>468</v>
-      </c>
-      <c r="J205" s="4" t="s">
-        <v>469</v>
       </c>
       <c r="K205" s="5"/>
     </row>
@@ -10104,10 +10071,10 @@
       </c>
       <c r="H206" s="5"/>
       <c r="I206" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="J206" s="4" t="s">
         <v>470</v>
-      </c>
-      <c r="J206" s="4" t="s">
-        <v>471</v>
       </c>
       <c r="K206" s="5"/>
     </row>
@@ -10135,10 +10102,10 @@
       </c>
       <c r="H207" s="5"/>
       <c r="I207" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="J207" s="4" t="s">
         <v>472</v>
-      </c>
-      <c r="J207" s="4" t="s">
-        <v>473</v>
       </c>
       <c r="K207" s="5"/>
     </row>
@@ -10166,14 +10133,14 @@
       </c>
       <c r="H208" s="5"/>
       <c r="I208" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="J208" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="J208" s="4" t="s">
-        <v>475</v>
-      </c>
       <c r="K208" s="5"/>
     </row>
-    <row r="209" spans="1:11" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="6">
         <v>45142</v>
       </c>
@@ -10187,7 +10154,7 @@
         <v>200</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>436</v>
+        <v>39</v>
       </c>
       <c r="F209" s="8">
         <v>10</v>
@@ -10197,14 +10164,14 @@
       </c>
       <c r="H209" s="5"/>
       <c r="I209" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="J209" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="J209" s="4" t="s">
-        <v>477</v>
-      </c>
       <c r="K209" s="5"/>
     </row>
-    <row r="210" spans="1:11" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="6">
         <v>45142</v>
       </c>
@@ -10218,7 +10185,7 @@
         <v>300</v>
       </c>
       <c r="E210" s="4" t="s">
-        <v>436</v>
+        <v>39</v>
       </c>
       <c r="F210" s="8">
         <v>12</v>
@@ -10228,14 +10195,14 @@
       </c>
       <c r="H210" s="5"/>
       <c r="I210" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="J210" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="J210" s="4" t="s">
-        <v>479</v>
-      </c>
       <c r="K210" s="5"/>
     </row>
-    <row r="211" spans="1:11" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="6">
         <v>45142</v>
       </c>
@@ -10249,7 +10216,7 @@
         <v>200</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>436</v>
+        <v>39</v>
       </c>
       <c r="F211" s="8">
         <v>8</v>
@@ -10259,14 +10226,14 @@
       </c>
       <c r="H211" s="5"/>
       <c r="I211" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="J211" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="J211" s="4" t="s">
-        <v>481</v>
-      </c>
       <c r="K211" s="5"/>
     </row>
-    <row r="212" spans="1:11" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="6">
         <v>45142</v>
       </c>
@@ -10280,7 +10247,7 @@
         <v>100</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>436</v>
+        <v>39</v>
       </c>
       <c r="F212" s="8">
         <v>13</v>
@@ -10290,14 +10257,14 @@
       </c>
       <c r="H212" s="5"/>
       <c r="I212" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="J212" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="J212" s="4" t="s">
-        <v>483</v>
-      </c>
       <c r="K212" s="5"/>
     </row>
-    <row r="213" spans="1:11" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="6">
         <v>45142</v>
       </c>
@@ -10311,7 +10278,7 @@
         <v>50</v>
       </c>
       <c r="E213" s="4" t="s">
-        <v>436</v>
+        <v>39</v>
       </c>
       <c r="F213" s="8">
         <v>4</v>
@@ -10321,14 +10288,14 @@
       </c>
       <c r="H213" s="5"/>
       <c r="I213" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="J213" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="J213" s="4" t="s">
-        <v>485</v>
-      </c>
       <c r="K213" s="5"/>
     </row>
-    <row r="214" spans="1:11" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="6">
         <v>45142</v>
       </c>
@@ -10342,7 +10309,7 @@
         <v>20</v>
       </c>
       <c r="E214" s="4" t="s">
-        <v>436</v>
+        <v>39</v>
       </c>
       <c r="F214" s="8">
         <v>9</v>
@@ -10352,7 +10319,7 @@
       </c>
       <c r="H214" s="5"/>
       <c r="I214" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J214" s="4" t="s">
         <v>191</v>
@@ -10383,10 +10350,10 @@
       </c>
       <c r="H215" s="5"/>
       <c r="I215" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="J215" s="4" t="s">
         <v>487</v>
-      </c>
-      <c r="J215" s="4" t="s">
-        <v>488</v>
       </c>
       <c r="K215" s="5"/>
     </row>
@@ -10414,14 +10381,14 @@
       </c>
       <c r="H216" s="5"/>
       <c r="I216" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="J216" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="J216" s="4" t="s">
-        <v>490</v>
-      </c>
       <c r="K216" s="5"/>
     </row>
-    <row r="217" spans="1:11" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="6">
         <v>45142</v>
       </c>
@@ -10435,7 +10402,7 @@
         <v>300</v>
       </c>
       <c r="E217" s="4" t="s">
-        <v>436</v>
+        <v>39</v>
       </c>
       <c r="F217" s="8">
         <v>5</v>
@@ -10445,10 +10412,10 @@
       </c>
       <c r="H217" s="5"/>
       <c r="I217" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="J217" s="4" t="s">
         <v>491</v>
-      </c>
-      <c r="J217" s="4" t="s">
-        <v>492</v>
       </c>
       <c r="K217" s="5"/>
     </row>
@@ -10476,10 +10443,10 @@
       </c>
       <c r="H218" s="5"/>
       <c r="I218" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="J218" s="4" t="s">
         <v>493</v>
-      </c>
-      <c r="J218" s="4" t="s">
-        <v>494</v>
       </c>
       <c r="K218" s="5"/>
     </row>
@@ -10507,10 +10474,10 @@
       </c>
       <c r="H219" s="5"/>
       <c r="I219" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="J219" s="4" t="s">
         <v>495</v>
-      </c>
-      <c r="J219" s="4" t="s">
-        <v>496</v>
       </c>
       <c r="K219" s="5"/>
     </row>
@@ -10538,10 +10505,10 @@
       </c>
       <c r="H220" s="5"/>
       <c r="I220" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="J220" s="4" t="s">
         <v>497</v>
-      </c>
-      <c r="J220" s="4" t="s">
-        <v>498</v>
       </c>
       <c r="K220" s="5"/>
     </row>
@@ -10569,10 +10536,10 @@
       </c>
       <c r="H221" s="5"/>
       <c r="I221" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="J221" s="4" t="s">
         <v>499</v>
-      </c>
-      <c r="J221" s="4" t="s">
-        <v>500</v>
       </c>
       <c r="K221" s="5"/>
     </row>
@@ -10600,14 +10567,14 @@
       </c>
       <c r="H222" s="5"/>
       <c r="I222" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="J222" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="J222" s="4" t="s">
-        <v>502</v>
-      </c>
       <c r="K222" s="5"/>
     </row>
-    <row r="223" spans="1:11" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="6">
         <v>45156</v>
       </c>
@@ -10621,7 +10588,7 @@
         <v>200</v>
       </c>
       <c r="E223" s="4" t="s">
-        <v>436</v>
+        <v>39</v>
       </c>
       <c r="F223" s="8">
         <v>15</v>
@@ -10631,14 +10598,14 @@
       </c>
       <c r="H223" s="5"/>
       <c r="I223" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="J223" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="J223" s="4" t="s">
-        <v>504</v>
-      </c>
       <c r="K223" s="5"/>
     </row>
-    <row r="224" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="6">
         <v>45156</v>
       </c>
@@ -10662,14 +10629,14 @@
       </c>
       <c r="H224" s="5"/>
       <c r="I224" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="J224" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="J224" s="4" t="s">
-        <v>506</v>
-      </c>
       <c r="K224" s="5"/>
     </row>
-    <row r="225" spans="1:11" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="6">
         <v>45156</v>
       </c>
@@ -10683,24 +10650,24 @@
         <v>200</v>
       </c>
       <c r="E225" s="4" t="s">
-        <v>436</v>
+        <v>39</v>
       </c>
       <c r="F225" s="8">
         <v>8</v>
       </c>
       <c r="G225" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H225" s="5"/>
       <c r="I225" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="J225" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="J225" s="4" t="s">
-        <v>509</v>
-      </c>
       <c r="K225" s="5"/>
     </row>
-    <row r="226" spans="1:11" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="6">
         <v>45156</v>
       </c>
@@ -10714,7 +10681,7 @@
         <v>100</v>
       </c>
       <c r="E226" s="4" t="s">
-        <v>436</v>
+        <v>39</v>
       </c>
       <c r="F226" s="8">
         <v>12</v>
@@ -10724,14 +10691,14 @@
       </c>
       <c r="H226" s="5"/>
       <c r="I226" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="J226" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="J226" s="4" t="s">
-        <v>511</v>
-      </c>
       <c r="K226" s="5"/>
     </row>
-    <row r="227" spans="1:11" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="6">
         <v>45156</v>
       </c>
@@ -10745,7 +10712,7 @@
         <v>50</v>
       </c>
       <c r="E227" s="4" t="s">
-        <v>436</v>
+        <v>39</v>
       </c>
       <c r="F227" s="8">
         <v>5</v>
@@ -10755,14 +10722,14 @@
       </c>
       <c r="H227" s="5"/>
       <c r="I227" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="J227" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="J227" s="4" t="s">
-        <v>513</v>
-      </c>
       <c r="K227" s="5"/>
     </row>
-    <row r="228" spans="1:11" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="6">
         <v>45163</v>
       </c>
@@ -10776,7 +10743,7 @@
         <v>300</v>
       </c>
       <c r="E228" s="4" t="s">
-        <v>436</v>
+        <v>39</v>
       </c>
       <c r="F228" s="8">
         <v>8</v>
@@ -10786,14 +10753,14 @@
       </c>
       <c r="H228" s="5"/>
       <c r="I228" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="J228" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="J228" s="4" t="s">
-        <v>515</v>
-      </c>
       <c r="K228" s="5"/>
     </row>
-    <row r="229" spans="1:11" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="6">
         <v>45163</v>
       </c>
@@ -10807,7 +10774,7 @@
         <v>500</v>
       </c>
       <c r="E229" s="4" t="s">
-        <v>436</v>
+        <v>39</v>
       </c>
       <c r="F229" s="8">
         <v>5</v>
@@ -10817,14 +10784,14 @@
       </c>
       <c r="H229" s="5"/>
       <c r="I229" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="J229" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="J229" s="4" t="s">
-        <v>517</v>
-      </c>
       <c r="K229" s="5"/>
     </row>
-    <row r="230" spans="1:11" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="6">
         <v>45163</v>
       </c>
@@ -10838,7 +10805,7 @@
         <v>50</v>
       </c>
       <c r="E230" s="4" t="s">
-        <v>436</v>
+        <v>39</v>
       </c>
       <c r="F230" s="8">
         <v>3</v>
@@ -10848,14 +10815,14 @@
       </c>
       <c r="H230" s="5"/>
       <c r="I230" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="J230" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="J230" s="4" t="s">
-        <v>519</v>
-      </c>
       <c r="K230" s="5"/>
     </row>
-    <row r="231" spans="1:11" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="6">
         <v>45163</v>
       </c>
@@ -10869,7 +10836,7 @@
         <v>20</v>
       </c>
       <c r="E231" s="4" t="s">
-        <v>436</v>
+        <v>39</v>
       </c>
       <c r="F231" s="8">
         <v>2</v>
@@ -10879,14 +10846,14 @@
       </c>
       <c r="H231" s="5"/>
       <c r="I231" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="J231" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="J231" s="4" t="s">
-        <v>521</v>
-      </c>
       <c r="K231" s="5"/>
     </row>
-    <row r="232" spans="1:11" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="6">
         <v>45163</v>
       </c>
@@ -10900,7 +10867,7 @@
         <v>50</v>
       </c>
       <c r="E232" s="4" t="s">
-        <v>436</v>
+        <v>39</v>
       </c>
       <c r="F232" s="8">
         <v>3</v>
@@ -10910,14 +10877,14 @@
       </c>
       <c r="H232" s="5"/>
       <c r="I232" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="J232" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="J232" s="4" t="s">
-        <v>523</v>
-      </c>
       <c r="K232" s="5"/>
     </row>
-    <row r="233" spans="1:11" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="6">
         <v>45163</v>
       </c>
@@ -10931,7 +10898,7 @@
         <v>20</v>
       </c>
       <c r="E233" s="4" t="s">
-        <v>436</v>
+        <v>39</v>
       </c>
       <c r="F233" s="8">
         <v>12</v>
@@ -10941,14 +10908,14 @@
       </c>
       <c r="H233" s="5"/>
       <c r="I233" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="J233" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="J233" s="4" t="s">
-        <v>525</v>
-      </c>
       <c r="K233" s="5"/>
     </row>
-    <row r="234" spans="1:11" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="6">
         <v>45163</v>
       </c>
@@ -10962,7 +10929,7 @@
         <v>30</v>
       </c>
       <c r="E234" s="4" t="s">
-        <v>436</v>
+        <v>39</v>
       </c>
       <c r="F234" s="8">
         <v>2</v>
@@ -10972,10 +10939,10 @@
       </c>
       <c r="H234" s="5"/>
       <c r="I234" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="J234" s="4" t="s">
         <v>526</v>
-      </c>
-      <c r="J234" s="4" t="s">
-        <v>527</v>
       </c>
       <c r="K234" s="5"/>
     </row>
@@ -11320,7 +11287,7 @@
       </c>
       <c r="K245" s="5"/>
     </row>
-    <row r="246" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" s="6">
         <v>45178</v>
       </c>
@@ -11382,7 +11349,7 @@
       </c>
       <c r="K247" s="5"/>
     </row>
-    <row r="248" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A248" s="6">
         <v>45178</v>
       </c>
@@ -11413,7 +11380,7 @@
       </c>
       <c r="K248" s="5"/>
     </row>
-    <row r="249" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A249" s="6">
         <v>45178</v>
       </c>
@@ -11458,7 +11425,7 @@
         <v>500</v>
       </c>
       <c r="E250" s="4" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="F250" s="8">
         <v>1</v>
@@ -11630,7 +11597,7 @@
       </c>
       <c r="K255" s="5"/>
     </row>
-    <row r="256" spans="1:11" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A256" s="6">
         <v>45185</v>
       </c>
@@ -11661,7 +11628,7 @@
       </c>
       <c r="K256" s="5"/>
     </row>
-    <row r="257" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A257" s="6">
         <v>45185</v>
       </c>
@@ -11785,7 +11752,7 @@
       </c>
       <c r="K260" s="5"/>
     </row>
-    <row r="261" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A261" s="6">
         <v>45185</v>
       </c>
@@ -12109,7 +12076,7 @@
         <v>500</v>
       </c>
       <c r="E271" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F271" s="8">
         <v>1</v>
@@ -12126,7 +12093,7 @@
       </c>
       <c r="K271" s="5"/>
     </row>
-    <row r="272" spans="1:11" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A272" s="6">
         <v>45192</v>
       </c>
@@ -12219,7 +12186,7 @@
       </c>
       <c r="K274" s="5"/>
     </row>
-    <row r="275" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A275" s="6">
         <v>45192</v>
       </c>
@@ -12250,7 +12217,7 @@
       </c>
       <c r="K275" s="5"/>
     </row>
-    <row r="276" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A276" s="6">
         <v>45193</v>
       </c>
@@ -12653,7 +12620,7 @@
       </c>
       <c r="K288" s="5"/>
     </row>
-    <row r="289" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A289" s="6">
         <v>45193</v>
       </c>
@@ -13118,7 +13085,7 @@
       </c>
       <c r="K303" s="5"/>
     </row>
-    <row r="304" spans="1:11" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A304" s="6">
         <v>45203</v>
       </c>
@@ -13149,7 +13116,7 @@
       </c>
       <c r="K304" s="5"/>
     </row>
-    <row r="305" spans="1:11" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A305" s="6">
         <v>45203</v>
       </c>
@@ -13304,7 +13271,7 @@
       </c>
       <c r="K309" s="5"/>
     </row>
-    <row r="310" spans="1:11" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A310" s="6">
         <v>45208</v>
       </c>
@@ -13428,7 +13395,7 @@
       </c>
       <c r="K313" s="5"/>
     </row>
-    <row r="314" spans="1:11" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A314" s="6">
         <v>45208</v>
       </c>
@@ -14017,7 +13984,7 @@
       </c>
       <c r="K332" s="5"/>
     </row>
-    <row r="333" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A333" s="6">
         <v>45220</v>
       </c>
@@ -14172,7 +14139,7 @@
       </c>
       <c r="K337" s="5"/>
     </row>
-    <row r="338" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A338" s="6">
         <v>45220</v>
       </c>
@@ -14265,7 +14232,7 @@
       </c>
       <c r="K340" s="5"/>
     </row>
-    <row r="341" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A341" s="6">
         <v>45220</v>
       </c>
@@ -14668,7 +14635,7 @@
       </c>
       <c r="K353" s="5"/>
     </row>
-    <row r="354" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A354" s="6">
         <v>45221</v>
       </c>
@@ -14916,7 +14883,7 @@
       </c>
       <c r="K361" s="5"/>
     </row>
-    <row r="362" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A362" s="6">
         <v>45221</v>
       </c>
@@ -14947,7 +14914,7 @@
       </c>
       <c r="K362" s="5"/>
     </row>
-    <row r="363" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A363" s="6">
         <v>45221</v>
       </c>
@@ -14978,7 +14945,7 @@
       </c>
       <c r="K363" s="5"/>
     </row>
-    <row r="364" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A364" s="6">
         <v>45221</v>
       </c>
@@ -15009,7 +14976,7 @@
       </c>
       <c r="K364" s="5"/>
     </row>
-    <row r="365" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A365" s="6">
         <v>45232</v>
       </c>
@@ -15412,7 +15379,7 @@
       </c>
       <c r="K377" s="5"/>
     </row>
-    <row r="378" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A378" s="6">
         <v>45232</v>
       </c>
@@ -15815,7 +15782,7 @@
       </c>
       <c r="K390" s="5"/>
     </row>
-    <row r="391" spans="1:11" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A391" s="6">
         <v>45233</v>
       </c>
@@ -15846,7 +15813,7 @@
       </c>
       <c r="K391" s="5"/>
     </row>
-    <row r="392" spans="1:11" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A392" s="9">
         <v>45233</v>
       </c>
@@ -15877,7 +15844,7 @@
       </c>
       <c r="K392" s="5"/>
     </row>
-    <row r="393" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A393" s="6">
         <v>45233</v>
       </c>
@@ -15908,7 +15875,7 @@
       </c>
       <c r="K393" s="5"/>
     </row>
-    <row r="394" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A394" s="6">
         <v>45233</v>
       </c>
@@ -15984,7 +15951,7 @@
         <v>3000</v>
       </c>
       <c r="E396" s="4" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="F396" s="8">
         <v>2</v>
@@ -16046,7 +16013,7 @@
         <v>500</v>
       </c>
       <c r="E398" s="4" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="F398" s="8">
         <v>2</v>
@@ -16077,7 +16044,7 @@
         <v>1000</v>
       </c>
       <c r="E399" s="4" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="F399" s="8">
         <v>2</v>
@@ -16156,7 +16123,7 @@
       </c>
       <c r="K401" s="5"/>
     </row>
-    <row r="402" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A402" s="6">
         <v>45244</v>
       </c>
@@ -16218,7 +16185,7 @@
       </c>
       <c r="K403" s="5"/>
     </row>
-    <row r="404" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A404" s="6">
         <v>45244</v>
       </c>
@@ -16249,7 +16216,7 @@
       </c>
       <c r="K404" s="5"/>
     </row>
-    <row r="405" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A405" s="6">
         <v>45244</v>
       </c>
@@ -16507,7 +16474,7 @@
       </c>
       <c r="K412" s="5"/>
     </row>
-    <row r="413" spans="1:11" ht="56" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:11" ht="56" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A413" s="6">
         <v>45299</v>
       </c>
@@ -16540,7 +16507,7 @@
       </c>
       <c r="K413" s="5"/>
     </row>
-    <row r="414" spans="1:11" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A414" s="6">
         <v>45299</v>
       </c>
@@ -16765,7 +16732,7 @@
       </c>
       <c r="K420" s="5"/>
     </row>
-    <row r="421" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A421" s="6">
         <v>45304</v>
       </c>
@@ -16957,7 +16924,7 @@
       </c>
       <c r="K426" s="5"/>
     </row>
-    <row r="427" spans="1:11" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A427" s="6">
         <v>45305</v>
       </c>
@@ -16990,7 +16957,7 @@
       </c>
       <c r="K427" s="5"/>
     </row>
-    <row r="428" spans="1:11" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A428" s="6">
         <v>45305</v>
       </c>
@@ -17056,7 +17023,7 @@
       </c>
       <c r="K429" s="5"/>
     </row>
-    <row r="430" spans="1:11" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A430" s="6">
         <v>45305</v>
       </c>
@@ -17122,7 +17089,7 @@
       </c>
       <c r="K431" s="5"/>
     </row>
-    <row r="432" spans="1:11" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A432" s="6">
         <v>45305</v>
       </c>
@@ -17347,7 +17314,7 @@
       </c>
       <c r="K438" s="5"/>
     </row>
-    <row r="439" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A439" s="6">
         <v>45319</v>
       </c>
@@ -17479,7 +17446,7 @@
       </c>
       <c r="K442" s="5"/>
     </row>
-    <row r="443" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A443" s="6">
         <v>45337</v>
       </c>
@@ -17545,7 +17512,7 @@
       </c>
       <c r="K444" s="5"/>
     </row>
-    <row r="445" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A445" s="6">
         <v>45337</v>
       </c>
@@ -17578,7 +17545,7 @@
       </c>
       <c r="K445" s="5"/>
     </row>
-    <row r="446" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A446" s="6">
         <v>45337</v>
       </c>
@@ -17770,7 +17737,7 @@
       </c>
       <c r="K451" s="5"/>
     </row>
-    <row r="452" spans="1:11" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A452" s="6">
         <v>45338</v>
       </c>
@@ -17803,7 +17770,7 @@
       </c>
       <c r="K452" s="5"/>
     </row>
-    <row r="453" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A453" s="6">
         <v>45338</v>
       </c>
@@ -17935,7 +17902,7 @@
       </c>
       <c r="K456" s="5"/>
     </row>
-    <row r="457" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A457" s="6">
         <v>45338</v>
       </c>
@@ -18249,7 +18216,7 @@
       </c>
       <c r="K466" s="5"/>
     </row>
-    <row r="467" spans="1:11" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A467" s="6">
         <v>45344</v>
       </c>
@@ -18342,7 +18309,7 @@
       </c>
       <c r="K469" s="5"/>
     </row>
-    <row r="470" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A470" s="6">
         <v>45344</v>
       </c>
@@ -18499,7 +18466,7 @@
       </c>
       <c r="K474" s="5"/>
     </row>
-    <row r="475" spans="1:11" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A475" s="6">
         <v>45345</v>
       </c>
@@ -18623,7 +18590,7 @@
       </c>
       <c r="K478" s="5"/>
     </row>
-    <row r="479" spans="1:11" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A479" s="6">
         <v>45345</v>
       </c>
@@ -19211,7 +19178,7 @@
       </c>
       <c r="K496" s="5"/>
     </row>
-    <row r="497" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A497" s="6">
         <v>45354</v>
       </c>
@@ -19374,7 +19341,7 @@
       </c>
       <c r="K501" s="5"/>
     </row>
-    <row r="502" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A502" s="6">
         <v>45354</v>
       </c>
@@ -19471,7 +19438,7 @@
       </c>
       <c r="K504" s="5"/>
     </row>
-    <row r="505" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A505" s="6">
         <v>45354</v>
       </c>
@@ -19900,7 +19867,7 @@
       </c>
       <c r="K517" s="5"/>
     </row>
-    <row r="518" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="518" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A518" s="6">
         <v>45357</v>
       </c>
@@ -20154,7 +20121,7 @@
       </c>
       <c r="K525" s="5"/>
     </row>
-    <row r="526" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="526" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A526" s="6">
         <v>45357</v>
       </c>
@@ -20187,7 +20154,7 @@
       </c>
       <c r="K526" s="5"/>
     </row>
-    <row r="527" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="527" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A527" s="6">
         <v>45357</v>
       </c>
@@ -20220,7 +20187,7 @@
       </c>
       <c r="K527" s="5"/>
     </row>
-    <row r="528" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="528" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A528" s="6">
         <v>45357</v>
       </c>
@@ -20449,7 +20416,7 @@
       </c>
       <c r="K534" s="5"/>
     </row>
-    <row r="535" spans="1:11" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="535" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A535" s="6">
         <v>45365</v>
       </c>
@@ -20513,7 +20480,7 @@
       </c>
       <c r="K536" s="5"/>
     </row>
-    <row r="537" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="537" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A537" s="6">
         <v>45365</v>
       </c>
@@ -20695,13 +20662,13 @@
         <v>14</v>
       </c>
       <c r="H542" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="I542" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="I542" s="4" t="s">
+      <c r="J542" s="4" t="s">
         <v>530</v>
-      </c>
-      <c r="J542" s="4" t="s">
-        <v>531</v>
       </c>
       <c r="K542" s="5"/>
     </row>
@@ -20729,10 +20696,10 @@
       </c>
       <c r="H543" s="5"/>
       <c r="I543" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="J543" s="4" t="s">
         <v>532</v>
-      </c>
-      <c r="J543" s="4" t="s">
-        <v>533</v>
       </c>
       <c r="K543" s="5"/>
     </row>
@@ -20762,10 +20729,10 @@
         <v>108</v>
       </c>
       <c r="I544" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="J544" s="4" t="s">
         <v>534</v>
-      </c>
-      <c r="J544" s="4" t="s">
-        <v>535</v>
       </c>
       <c r="K544" s="5"/>
     </row>
@@ -20792,17 +20759,17 @@
         <v>14</v>
       </c>
       <c r="H545" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="I545" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="I545" s="4" t="s">
+      <c r="J545" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="J545" s="4" t="s">
-        <v>538</v>
-      </c>
       <c r="K545" s="5"/>
     </row>
-    <row r="546" spans="1:11" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="546" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A546" s="6">
         <v>45376</v>
       </c>
@@ -20816,7 +20783,7 @@
         <v>300</v>
       </c>
       <c r="E546" s="4" t="s">
-        <v>436</v>
+        <v>39</v>
       </c>
       <c r="F546" s="8">
         <v>3</v>
@@ -20825,17 +20792,17 @@
         <v>14</v>
       </c>
       <c r="H546" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="I546" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="I546" s="4" t="s">
+      <c r="J546" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="J546" s="4" t="s">
-        <v>541</v>
-      </c>
       <c r="K546" s="5"/>
     </row>
-    <row r="547" spans="1:11" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="547" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A547" s="6">
         <v>45376</v>
       </c>
@@ -20849,7 +20816,7 @@
         <v>20</v>
       </c>
       <c r="E547" s="4" t="s">
-        <v>436</v>
+        <v>39</v>
       </c>
       <c r="F547" s="8">
         <v>5</v>
@@ -20858,17 +20825,17 @@
         <v>14</v>
       </c>
       <c r="H547" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I547" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="J547" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="J547" s="4" t="s">
-        <v>543</v>
-      </c>
       <c r="K547" s="5"/>
     </row>
-    <row r="548" spans="1:11" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="548" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A548" s="6">
         <v>45376</v>
       </c>
@@ -20882,7 +20849,7 @@
         <v>80</v>
       </c>
       <c r="E548" s="4" t="s">
-        <v>436</v>
+        <v>39</v>
       </c>
       <c r="F548" s="8">
         <v>10</v>
@@ -20891,17 +20858,17 @@
         <v>14</v>
       </c>
       <c r="H548" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="I548" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="I548" s="4" t="s">
+      <c r="J548" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="J548" s="4" t="s">
-        <v>546</v>
-      </c>
       <c r="K548" s="5"/>
     </row>
-    <row r="549" spans="1:11" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="549" spans="1:11" ht="56" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A549" s="6">
         <v>45376</v>
       </c>
@@ -20924,13 +20891,13 @@
         <v>61</v>
       </c>
       <c r="H549" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="I549" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="I549" s="4" t="s">
+      <c r="J549" s="4" t="s">
         <v>548</v>
-      </c>
-      <c r="J549" s="4" t="s">
-        <v>549</v>
       </c>
       <c r="K549" s="5"/>
     </row>
@@ -20961,11 +20928,11 @@
         <v>-39956</v>
       </c>
       <c r="J550" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="K550" s="5"/>
     </row>
-    <row r="551" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="551" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A551" s="6">
         <v>45376</v>
       </c>
@@ -20991,10 +20958,10 @@
         <v>105</v>
       </c>
       <c r="I551" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="J551" s="4" t="s">
         <v>551</v>
-      </c>
-      <c r="J551" s="4" t="s">
-        <v>552</v>
       </c>
       <c r="K551" s="5"/>
     </row>
@@ -21018,14 +20985,14 @@
         <v>1</v>
       </c>
       <c r="G552" s="4" t="s">
-        <v>553</v>
+        <v>21</v>
       </c>
       <c r="H552" s="5"/>
       <c r="I552" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="J552" s="4" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="K552" s="5"/>
     </row>
@@ -21049,14 +21016,14 @@
         <v>1</v>
       </c>
       <c r="G553" s="4" t="s">
-        <v>553</v>
+        <v>21</v>
       </c>
       <c r="H553" s="5"/>
       <c r="I553" s="4" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="J553" s="4" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="K553" s="5"/>
     </row>
@@ -21084,10 +21051,10 @@
       </c>
       <c r="H554" s="5"/>
       <c r="I554" s="4" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="J554" s="4" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="K554" s="5"/>
     </row>
@@ -21111,16 +21078,16 @@
         <v>1</v>
       </c>
       <c r="G555" s="4" t="s">
-        <v>553</v>
+        <v>21</v>
       </c>
       <c r="H555" s="4" t="s">
         <v>105</v>
       </c>
       <c r="I555" s="4" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="J555" s="4" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="K555" s="5"/>
     </row>
@@ -21148,10 +21115,10 @@
       </c>
       <c r="H556" s="5"/>
       <c r="I556" s="4" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="J556" s="4" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="K556" s="5"/>
     </row>
@@ -21178,13 +21145,13 @@
         <v>431</v>
       </c>
       <c r="H557" s="4" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="I557" s="4" t="s">
         <v>308</v>
       </c>
       <c r="J557" s="4" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="K557" s="5"/>
     </row>
@@ -21208,14 +21175,14 @@
         <v>1</v>
       </c>
       <c r="G558" s="4" t="s">
-        <v>553</v>
+        <v>21</v>
       </c>
       <c r="H558" s="5"/>
       <c r="I558" s="4" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="J558" s="4" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="K558" s="5"/>
     </row>
@@ -21242,13 +21209,13 @@
         <v>431</v>
       </c>
       <c r="H559" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="I559" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="J559" s="4" t="s">
         <v>567</v>
-      </c>
-      <c r="I559" s="4" t="s">
-        <v>568</v>
-      </c>
-      <c r="J559" s="4" t="s">
-        <v>569</v>
       </c>
       <c r="K559" s="5"/>
     </row>
@@ -21272,14 +21239,14 @@
         <v>1</v>
       </c>
       <c r="G560" s="4" t="s">
-        <v>553</v>
+        <v>21</v>
       </c>
       <c r="H560" s="5"/>
       <c r="I560" s="4" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="J560" s="4" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="K560" s="5"/>
     </row>
@@ -21310,7 +21277,7 @@
         <v>46</v>
       </c>
       <c r="J561" s="4" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="K561" s="5"/>
     </row>
@@ -21337,13 +21304,13 @@
         <v>21</v>
       </c>
       <c r="H562" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="I562" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="J562" s="4" t="s">
         <v>573</v>
-      </c>
-      <c r="I562" s="4" t="s">
-        <v>574</v>
-      </c>
-      <c r="J562" s="4" t="s">
-        <v>575</v>
       </c>
       <c r="K562" s="5"/>
     </row>
@@ -21370,13 +21337,13 @@
         <v>14</v>
       </c>
       <c r="H563" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="I563" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="J563" s="4" t="s">
         <v>576</v>
-      </c>
-      <c r="I563" s="4" t="s">
-        <v>577</v>
-      </c>
-      <c r="J563" s="4" t="s">
-        <v>578</v>
       </c>
       <c r="K563" s="5"/>
     </row>
@@ -21403,17 +21370,17 @@
         <v>14</v>
       </c>
       <c r="H564" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="I564" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="J564" s="4" t="s">
         <v>579</v>
       </c>
-      <c r="I564" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="J564" s="4" t="s">
-        <v>581</v>
-      </c>
       <c r="K564" s="5"/>
     </row>
-    <row r="565" spans="1:11" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="565" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A565" s="6">
         <v>45393</v>
       </c>
@@ -21433,16 +21400,16 @@
         <v>8</v>
       </c>
       <c r="G565" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="H565" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="I565" s="4" t="s">
         <v>582</v>
       </c>
-      <c r="H565" s="4" t="s">
+      <c r="J565" s="4" t="s">
         <v>583</v>
-      </c>
-      <c r="I565" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="J565" s="4" t="s">
-        <v>585</v>
       </c>
       <c r="K565" s="5"/>
     </row>
@@ -21469,13 +21436,13 @@
         <v>14</v>
       </c>
       <c r="H566" s="4" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="I566" s="4" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="J566" s="4" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="K566" s="5"/>
     </row>
@@ -21502,13 +21469,13 @@
         <v>14</v>
       </c>
       <c r="H567" s="4" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="I567" s="4" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="J567" s="4" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="K567" s="5"/>
     </row>
@@ -21538,10 +21505,10 @@
         <v>73</v>
       </c>
       <c r="I568" s="4" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="J568" s="4" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K568" s="5"/>
     </row>
@@ -21569,10 +21536,10 @@
       </c>
       <c r="H569" s="5"/>
       <c r="I569" s="4" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="J569" s="4" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="K569" s="5"/>
     </row>
@@ -21600,10 +21567,10 @@
       </c>
       <c r="H570" s="5"/>
       <c r="I570" s="4" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J570" s="4" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="K570" s="5"/>
     </row>
@@ -21631,10 +21598,10 @@
       </c>
       <c r="H571" s="5"/>
       <c r="I571" s="4" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="J571" s="4" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="K571" s="5"/>
     </row>
@@ -21661,13 +21628,13 @@
         <v>431</v>
       </c>
       <c r="H572" s="4" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="I572" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="J572" s="4" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="K572" s="5"/>
     </row>
@@ -21695,10 +21662,10 @@
       </c>
       <c r="H573" s="5"/>
       <c r="I573" s="4" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="J573" s="4" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="K573" s="5"/>
     </row>
@@ -21726,14 +21693,14 @@
       </c>
       <c r="H574" s="5"/>
       <c r="I574" s="4" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="J574" s="4" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="K574" s="5"/>
     </row>
-    <row r="575" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="575" spans="1:11" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A575" s="6">
         <v>45393</v>
       </c>
@@ -21759,10 +21726,10 @@
         <v>244</v>
       </c>
       <c r="I575" s="4" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="J575" s="4" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="K575" s="5"/>
     </row>
@@ -21790,18 +21757,18 @@
       </c>
       <c r="H576" s="5"/>
       <c r="I576" s="4" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="J576" s="4" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="K576" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="G1:G576" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="E1:E576" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Descansando"/>
+        <filter val="Delfín austral (Lagenorhynchus australis)"/>
       </filters>
     </filterColumn>
   </autoFilter>
